--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_12_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1836929.671272269</v>
+        <v>1836251.489964737</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>311885.1970183199</v>
+        <v>311885.19701832</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>19.083495583673</v>
       </c>
       <c r="E11" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H11" t="n">
-        <v>5.758864737813752</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>46.38701225037786</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>33.0623814045185</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.93811835407747</v>
+        <v>55.93811835407746</v>
       </c>
       <c r="V11" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>111.347397856272</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.38249396128595</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.73635203332426</v>
+        <v>20.73635203332423</v>
       </c>
       <c r="U12" t="n">
-        <v>43.01612417394762</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="V12" t="n">
-        <v>46.43735102801256</v>
+        <v>46.43735102801253</v>
       </c>
       <c r="W12" t="n">
-        <v>72.4930136896219</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="X12" t="n">
-        <v>23.10134455208092</v>
+        <v>23.10134455208089</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.17271624663593</v>
+        <v>29.1727162466359</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.003274493278791</v>
+        <v>9.003274493278774</v>
       </c>
       <c r="S13" t="n">
-        <v>41.14309824393258</v>
+        <v>41.14309824393256</v>
       </c>
       <c r="T13" t="n">
-        <v>29.52954681521115</v>
+        <v>29.52954681521112</v>
       </c>
       <c r="U13" t="n">
-        <v>94.44472612269436</v>
+        <v>94.44472612269433</v>
       </c>
       <c r="V13" t="n">
-        <v>50.89744529706022</v>
+        <v>50.89744529706019</v>
       </c>
       <c r="W13" t="n">
-        <v>96.09913720194564</v>
+        <v>96.09913720194561</v>
       </c>
       <c r="X13" t="n">
-        <v>27.70788552085284</v>
+        <v>27.70788552085281</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.92970292677873</v>
+        <v>22.9297029267787</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>75.02161393775062</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.06238140451848</v>
+        <v>33.06238140451843</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>28.20762267428231</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>55.9381183540774</v>
       </c>
       <c r="V14" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="W14" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>113.5870392834474</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.141010788491283</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S15" t="n">
-        <v>112.4084155782683</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.73635203332423</v>
+        <v>20.73635203332417</v>
       </c>
       <c r="U15" t="n">
-        <v>43.0161241739476</v>
+        <v>68.02710041328628</v>
       </c>
       <c r="V15" t="n">
-        <v>46.43735102801253</v>
+        <v>46.43735102801247</v>
       </c>
       <c r="W15" t="n">
-        <v>72.49301368962188</v>
+        <v>72.49301368962182</v>
       </c>
       <c r="X15" t="n">
-        <v>23.10134455208089</v>
+        <v>23.10134455208083</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.1727162466359</v>
+        <v>122.7111663740566</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.003274493278763</v>
+        <v>9.003274493278713</v>
       </c>
       <c r="S16" t="n">
-        <v>41.14309824393256</v>
+        <v>41.1430982439325</v>
       </c>
       <c r="T16" t="n">
-        <v>29.52954681521112</v>
+        <v>29.52954681521107</v>
       </c>
       <c r="U16" t="n">
-        <v>94.44472612269433</v>
+        <v>94.44472612269428</v>
       </c>
       <c r="V16" t="n">
-        <v>50.89744529706019</v>
+        <v>50.89744529706013</v>
       </c>
       <c r="W16" t="n">
-        <v>96.09913720194561</v>
+        <v>96.09913720194555</v>
       </c>
       <c r="X16" t="n">
-        <v>27.70788552085281</v>
+        <v>27.70788552085276</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.9297029267787</v>
+        <v>22.92970292677865</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C17" t="n">
-        <v>29.55915463258606</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D17" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E17" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304312</v>
       </c>
       <c r="F17" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G17" t="n">
-        <v>98.18116457427345</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26582637653695</v>
+        <v>26.26582637653692</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W17" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X17" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y17" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="18">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>51.93601990319849</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.141010788491283</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R18" t="n">
-        <v>50.00696465057939</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S18" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="T18" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>101.9429845537777</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C20" t="n">
-        <v>29.55915463258606</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D20" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E20" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F20" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G20" t="n">
-        <v>98.18116457427345</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26582637653695</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0.2334408605586691</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W20" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X20" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y20" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>101.9429845537777</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.44089762924057</v>
+        <v>53.44089762924051</v>
       </c>
       <c r="C23" t="n">
-        <v>29.55915463258606</v>
+        <v>29.559154632586</v>
       </c>
       <c r="D23" t="n">
-        <v>17.12581689363452</v>
+        <v>17.12581689363446</v>
       </c>
       <c r="E23" t="n">
-        <v>50.83256931304339</v>
+        <v>50.83256931304334</v>
       </c>
       <c r="F23" t="n">
-        <v>82.55290689142072</v>
+        <v>82.55290689142066</v>
       </c>
       <c r="G23" t="n">
-        <v>98.18116457427345</v>
+        <v>98.1811645742734</v>
       </c>
       <c r="H23" t="n">
-        <v>26.26582637653695</v>
+        <v>26.26582637653689</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2334408605592557</v>
+        <v>0.2334408605591989</v>
       </c>
       <c r="W23" t="n">
-        <v>17.25012107717413</v>
+        <v>17.25012107717407</v>
       </c>
       <c r="X23" t="n">
-        <v>39.13637154611337</v>
+        <v>39.13637154611331</v>
       </c>
       <c r="Y23" t="n">
-        <v>61.63922466985713</v>
+        <v>61.63922466985707</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>108.083995342269</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="V24" t="n">
-        <v>108.0839953422692</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
     </row>
     <row r="25">
@@ -2561,7 +2561,7 @@
         <v>124.8515755759446</v>
       </c>
       <c r="E26" t="n">
-        <v>158.5583279953535</v>
+        <v>158.5583279953534</v>
       </c>
       <c r="F26" t="n">
         <v>190.2786655737308</v>
@@ -2573,7 +2573,7 @@
         <v>133.991585058847</v>
       </c>
       <c r="I26" t="n">
-        <v>27.67799807148486</v>
+        <v>27.67799807148484</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.3533672256255</v>
+        <v>14.35336722562549</v>
       </c>
       <c r="T26" t="n">
-        <v>9.498608495389391</v>
+        <v>9.498608495389364</v>
       </c>
       <c r="U26" t="n">
-        <v>37.22910417518449</v>
+        <v>37.22910417518446</v>
       </c>
       <c r="V26" t="n">
         <v>107.9591995428693</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.30371805066518</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.947921920714</v>
+        <v>2.027337854431227</v>
       </c>
       <c r="U27" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V27" t="n">
-        <v>27.72833684911956</v>
+        <v>236.204369976363</v>
       </c>
       <c r="W27" t="n">
-        <v>53.7839995107289</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.392330373187917</v>
+        <v>4.392330373187889</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.46370206774293</v>
+        <v>10.4637020677429</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.43408406503958</v>
+        <v>22.43408406503956</v>
       </c>
       <c r="T28" t="n">
-        <v>10.82053263631815</v>
+        <v>10.82053263631813</v>
       </c>
       <c r="U28" t="n">
-        <v>75.73571194380136</v>
+        <v>75.73571194380133</v>
       </c>
       <c r="V28" t="n">
-        <v>32.18843111816722</v>
+        <v>32.18843111816719</v>
       </c>
       <c r="W28" t="n">
-        <v>77.39012302305264</v>
+        <v>77.39012302305261</v>
       </c>
       <c r="X28" t="n">
-        <v>8.998871341959841</v>
+        <v>8.998871341959813</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.220688747885731</v>
+        <v>4.220688747885703</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.1666563115506</v>
+        <v>161.1666563115507</v>
       </c>
       <c r="C29" t="n">
-        <v>137.2849133148961</v>
+        <v>137.2849133148962</v>
       </c>
       <c r="D29" t="n">
         <v>124.8515755759446</v>
@@ -2804,13 +2804,13 @@
         <v>190.2786655737308</v>
       </c>
       <c r="G29" t="n">
-        <v>205.9069232565835</v>
+        <v>205.9069232565836</v>
       </c>
       <c r="H29" t="n">
-        <v>133.991585058847</v>
+        <v>133.9915850588471</v>
       </c>
       <c r="I29" t="n">
-        <v>27.67799807148486</v>
+        <v>27.6779980714849</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.35336722562552</v>
+        <v>14.35336722562555</v>
       </c>
       <c r="T29" t="n">
-        <v>9.498608495389391</v>
+        <v>9.498608495389421</v>
       </c>
       <c r="U29" t="n">
-        <v>37.22910417518449</v>
+        <v>37.22910417518452</v>
       </c>
       <c r="V29" t="n">
-        <v>107.9591995428693</v>
+        <v>107.9591995428694</v>
       </c>
       <c r="W29" t="n">
         <v>124.9758797594842</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8621302284234</v>
+        <v>146.8621302284235</v>
       </c>
       <c r="Y29" t="n">
         <v>169.3649833521672</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>210.5033709816749</v>
+        <v>2.027337854431284</v>
       </c>
       <c r="U30" t="n">
-        <v>24.30710999505462</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.72833684911959</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.78399951072893</v>
       </c>
       <c r="X30" t="n">
-        <v>4.392330373187917</v>
+        <v>154.7913328087414</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.46370206774293</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.43408406503958</v>
+        <v>22.43408406503961</v>
       </c>
       <c r="T31" t="n">
-        <v>10.82053263631815</v>
+        <v>10.82053263631818</v>
       </c>
       <c r="U31" t="n">
-        <v>75.73571194380136</v>
+        <v>75.73571194380139</v>
       </c>
       <c r="V31" t="n">
-        <v>32.18843111816722</v>
+        <v>32.18843111816724</v>
       </c>
       <c r="W31" t="n">
-        <v>77.39012302305264</v>
+        <v>77.39012302305267</v>
       </c>
       <c r="X31" t="n">
-        <v>8.998871341959841</v>
+        <v>8.99887134195987</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.220688747885731</v>
+        <v>4.22068874788576</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>137.2849133148962</v>
       </c>
       <c r="D32" t="n">
-        <v>124.8515755759447</v>
+        <v>124.8515755759446</v>
       </c>
       <c r="E32" t="n">
-        <v>158.5583279953536</v>
+        <v>158.5583279953535</v>
       </c>
       <c r="F32" t="n">
-        <v>190.2786655737309</v>
+        <v>190.2786655737308</v>
       </c>
       <c r="G32" t="n">
         <v>205.9069232565836</v>
@@ -3047,7 +3047,7 @@
         <v>133.9915850588471</v>
       </c>
       <c r="I32" t="n">
-        <v>27.67799807148495</v>
+        <v>27.67799807148489</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.35336722562562</v>
+        <v>14.35336722562556</v>
       </c>
       <c r="T32" t="n">
-        <v>9.498608495389476</v>
+        <v>9.498608495389419</v>
       </c>
       <c r="U32" t="n">
-        <v>37.22910417518457</v>
+        <v>37.22910417518452</v>
       </c>
       <c r="V32" t="n">
         <v>107.9591995428694</v>
       </c>
       <c r="W32" t="n">
-        <v>124.9758797594843</v>
+        <v>124.9758797594842</v>
       </c>
       <c r="X32" t="n">
         <v>146.8621302284235</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.3649833521673</v>
+        <v>169.3649833521672</v>
       </c>
     </row>
     <row r="33">
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>49.65259400731458</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.027337854431341</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U33" t="n">
-        <v>24.30710999505471</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V33" t="n">
-        <v>27.72833684911964</v>
+        <v>70.89104411129298</v>
       </c>
       <c r="W33" t="n">
-        <v>53.78399951072899</v>
+        <v>53.78399951072893</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>4.392330373187946</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>10.46370206774296</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.43408406503967</v>
+        <v>22.43408406503961</v>
       </c>
       <c r="T34" t="n">
-        <v>10.82053263631824</v>
+        <v>10.82053263631818</v>
       </c>
       <c r="U34" t="n">
-        <v>75.73571194380145</v>
+        <v>75.73571194380139</v>
       </c>
       <c r="V34" t="n">
-        <v>32.1884311181673</v>
+        <v>32.18843111816724</v>
       </c>
       <c r="W34" t="n">
-        <v>77.39012302305272</v>
+        <v>77.39012302305267</v>
       </c>
       <c r="X34" t="n">
-        <v>8.998871341959926</v>
+        <v>8.99887134195987</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.220688747885816</v>
+        <v>4.22068874788576</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>101.8942865922346</v>
       </c>
       <c r="D35" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328301</v>
       </c>
       <c r="E35" t="n">
         <v>123.1677012726919</v>
       </c>
       <c r="F35" t="n">
-        <v>154.8880388510693</v>
+        <v>154.8880388510692</v>
       </c>
       <c r="G35" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339219</v>
       </c>
       <c r="H35" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618544</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452522895</v>
       </c>
       <c r="V35" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020775</v>
       </c>
       <c r="W35" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682262</v>
       </c>
       <c r="X35" t="n">
         <v>111.4715035057619</v>
       </c>
       <c r="Y35" t="n">
-        <v>133.9743566295057</v>
+        <v>133.9743566295056</v>
       </c>
     </row>
     <row r="36">
@@ -3357,16 +3357,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.40418809174341</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>39.66109743606174</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,10 +3402,10 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>18.39337278806738</v>
+        <v>18.39337278806732</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113978</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>41.99949630039112</v>
+        <v>41.99949630039106</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>101.8942865922346</v>
       </c>
       <c r="D38" t="n">
-        <v>89.46094885328307</v>
+        <v>89.46094885328301</v>
       </c>
       <c r="E38" t="n">
         <v>123.1677012726919</v>
       </c>
       <c r="F38" t="n">
-        <v>154.8880388510693</v>
+        <v>154.8880388510692</v>
       </c>
       <c r="G38" t="n">
-        <v>170.516296533922</v>
+        <v>170.5162965339219</v>
       </c>
       <c r="H38" t="n">
-        <v>98.6009583361855</v>
+        <v>98.60095833618544</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.838477452522966</v>
+        <v>1.838477452522895</v>
       </c>
       <c r="V38" t="n">
-        <v>72.56857282020781</v>
+        <v>72.56857282020775</v>
       </c>
       <c r="W38" t="n">
-        <v>89.58525303682268</v>
+        <v>89.58525303682262</v>
       </c>
       <c r="X38" t="n">
         <v>111.4715035057619</v>
       </c>
       <c r="Y38" t="n">
-        <v>133.9743566295057</v>
+        <v>133.9743566295056</v>
       </c>
     </row>
     <row r="39">
@@ -3588,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>69.13811470048472</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7388978542471</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1669324054735</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,25 +3627,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3654897447971</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>107.7064042020865</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>18.39337278806738</v>
+        <v>18.39337278806732</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>40.34508522113983</v>
+        <v>40.34508522113978</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>41.99949630039112</v>
+        <v>41.99949630039106</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>133.4886582400657</v>
+        <v>133.4886582400658</v>
       </c>
       <c r="C41" t="n">
-        <v>109.6069152434112</v>
+        <v>109.6069152434113</v>
       </c>
       <c r="D41" t="n">
-        <v>97.1735775044597</v>
+        <v>97.17357750445973</v>
       </c>
       <c r="E41" t="n">
         <v>130.8803299238686</v>
@@ -3752,10 +3752,10 @@
         <v>162.6006675022459</v>
       </c>
       <c r="G41" t="n">
-        <v>178.2289251850986</v>
+        <v>178.2289251850987</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3135869873621</v>
+        <v>106.3135869873622</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.551106103699581</v>
+        <v>9.55110610369961</v>
       </c>
       <c r="V41" t="n">
-        <v>80.28120147138443</v>
+        <v>80.28120147138446</v>
       </c>
       <c r="W41" t="n">
-        <v>97.29788168799931</v>
+        <v>97.29788168799934</v>
       </c>
       <c r="X41" t="n">
-        <v>119.1841321569385</v>
+        <v>119.1841321569386</v>
       </c>
       <c r="Y41" t="n">
         <v>141.6869852806823</v>
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>113.7798660393785</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05033877763466421</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W42" t="n">
-        <v>26.10600143924401</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>161.1378009148754</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.05771387231646</v>
+        <v>48.05771387231649</v>
       </c>
       <c r="V43" t="n">
-        <v>4.510433046682323</v>
+        <v>4.510433046682351</v>
       </c>
       <c r="W43" t="n">
-        <v>49.71212495156774</v>
+        <v>49.71212495156777</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>133.4886582400657</v>
+        <v>133.4886582400658</v>
       </c>
       <c r="C44" t="n">
-        <v>109.6069152434112</v>
+        <v>109.6069152434113</v>
       </c>
       <c r="D44" t="n">
-        <v>97.1735775044594</v>
+        <v>97.17357750445973</v>
       </c>
       <c r="E44" t="n">
         <v>130.8803299238686</v>
@@ -3989,10 +3989,10 @@
         <v>162.6006675022459</v>
       </c>
       <c r="G44" t="n">
-        <v>178.2289251850986</v>
+        <v>178.2289251850987</v>
       </c>
       <c r="H44" t="n">
-        <v>106.3135869873621</v>
+        <v>106.3135869873622</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.551106103699581</v>
+        <v>9.55110610369961</v>
       </c>
       <c r="V44" t="n">
-        <v>80.28120147138443</v>
+        <v>80.28120147138446</v>
       </c>
       <c r="W44" t="n">
-        <v>97.29788168799931</v>
+        <v>97.29788168799934</v>
       </c>
       <c r="X44" t="n">
-        <v>119.1841321569385</v>
+        <v>119.1841321569386</v>
       </c>
       <c r="Y44" t="n">
         <v>141.6869852806823</v>
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>107.1180479836569</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>113.7798660393783</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4104,19 +4104,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0.05033877763469263</v>
       </c>
       <c r="W45" t="n">
-        <v>26.10600143924401</v>
+        <v>26.10600143924404</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.05771387231646</v>
+        <v>48.05771387231649</v>
       </c>
       <c r="V46" t="n">
-        <v>4.510433046682323</v>
+        <v>4.510433046682351</v>
       </c>
       <c r="W46" t="n">
-        <v>49.71212495156774</v>
+        <v>49.71212495156777</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>310.3908425385156</v>
+        <v>400.9451707905737</v>
       </c>
       <c r="C11" t="n">
-        <v>186.4401694334078</v>
+        <v>276.9944976854661</v>
       </c>
       <c r="D11" t="n">
-        <v>186.4401694334078</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="E11" t="n">
-        <v>62.48949632830004</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="F11" t="n">
-        <v>62.48949632830004</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="G11" t="n">
-        <v>62.48949632830004</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H11" t="n">
-        <v>56.67246123959914</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I11" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J11" t="n">
-        <v>20.4507678752595</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K11" t="n">
-        <v>141.9348225855757</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="L11" t="n">
-        <v>190.3219518367872</v>
+        <v>252.7850027305565</v>
       </c>
       <c r="M11" t="n">
-        <v>273.0379160149503</v>
+        <v>335.5009669087195</v>
       </c>
       <c r="N11" t="n">
-        <v>350.2498749533996</v>
+        <v>412.7129258471688</v>
       </c>
       <c r="O11" t="n">
-        <v>386.2495795577946</v>
+        <v>448.7126304515637</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2495795577946</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q11" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R11" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S11" t="n">
-        <v>490.8446654962269</v>
+        <v>457.4483206431773</v>
       </c>
       <c r="T11" t="n">
-        <v>490.8446654962269</v>
+        <v>457.4483206431773</v>
       </c>
       <c r="U11" t="n">
-        <v>434.3415156436234</v>
+        <v>400.9451707905737</v>
       </c>
       <c r="V11" t="n">
-        <v>310.3908425385156</v>
+        <v>400.9451707905737</v>
       </c>
       <c r="W11" t="n">
-        <v>310.3908425385156</v>
+        <v>400.9451707905737</v>
       </c>
       <c r="X11" t="n">
-        <v>310.3908425385156</v>
+        <v>400.9451707905737</v>
       </c>
       <c r="Y11" t="n">
-        <v>310.3908425385156</v>
+        <v>400.9451707905737</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H12" t="n">
-        <v>118.06631998212</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I12" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J12" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K12" t="n">
-        <v>9.816893309924538</v>
+        <v>48.69249843149179</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3764842781289</v>
+        <v>167.2520893996961</v>
       </c>
       <c r="M12" t="n">
-        <v>249.8605389884451</v>
+        <v>167.2520893996961</v>
       </c>
       <c r="N12" t="n">
-        <v>369.3606107859108</v>
+        <v>284.6566804676643</v>
       </c>
       <c r="O12" t="n">
-        <v>490.8446654962269</v>
+        <v>406.1407351779803</v>
       </c>
       <c r="P12" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q12" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R12" t="n">
-        <v>366.8939923911191</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S12" t="n">
-        <v>355.3965237433555</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T12" t="n">
-        <v>334.4507136086846</v>
+        <v>469.8988553615553</v>
       </c>
       <c r="U12" t="n">
-        <v>291.0000831299496</v>
+        <v>345.9481822564477</v>
       </c>
       <c r="V12" t="n">
-        <v>244.0936679501389</v>
+        <v>299.041767076637</v>
       </c>
       <c r="W12" t="n">
-        <v>170.8684015969855</v>
+        <v>175.0910939715294</v>
       </c>
       <c r="X12" t="n">
-        <v>147.5337101302371</v>
+        <v>151.756402504781</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.06631998212</v>
+        <v>122.2890123566639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C13" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D13" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E13" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F13" t="n">
-        <v>9.816893309924538</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="G13" t="n">
-        <v>9.816893309924538</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="H13" t="n">
-        <v>9.816893309924538</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="I13" t="n">
-        <v>9.816893309924538</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="J13" t="n">
-        <v>9.816893309924538</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="K13" t="n">
-        <v>9.816893309924538</v>
+        <v>64.54873410217816</v>
       </c>
       <c r="L13" t="n">
-        <v>9.816893309924538</v>
+        <v>186.0327888124941</v>
       </c>
       <c r="M13" t="n">
-        <v>131.3009480202407</v>
+        <v>307.5168435228101</v>
       </c>
       <c r="N13" t="n">
-        <v>142.358699668842</v>
+        <v>307.5168435228101</v>
       </c>
       <c r="O13" t="n">
-        <v>263.8427543791582</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="P13" t="n">
-        <v>385.3268090894744</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="Q13" t="n">
-        <v>385.3268090894744</v>
+        <v>385.3268090894741</v>
       </c>
       <c r="R13" t="n">
-        <v>376.2325924295968</v>
+        <v>376.2325924295966</v>
       </c>
       <c r="S13" t="n">
-        <v>334.6739073347154</v>
+        <v>334.6739073347152</v>
       </c>
       <c r="T13" t="n">
-        <v>304.8460822688455</v>
+        <v>304.8460822688454</v>
       </c>
       <c r="U13" t="n">
-        <v>209.4473690135987</v>
+        <v>209.4473690135986</v>
       </c>
       <c r="V13" t="n">
-        <v>158.0358081074773</v>
+        <v>158.0358081074772</v>
       </c>
       <c r="W13" t="n">
-        <v>60.96597254995643</v>
+        <v>60.96597254995636</v>
       </c>
       <c r="X13" t="n">
-        <v>32.97820939757982</v>
+        <v>32.97820939757978</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>209.5469744329624</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C14" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D14" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E14" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F14" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G14" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H14" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I14" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J14" t="n">
-        <v>126.9687252395235</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K14" t="n">
-        <v>126.9687252395235</v>
+        <v>125.0458538136914</v>
       </c>
       <c r="L14" t="n">
-        <v>175.3558544907351</v>
+        <v>173.4329830649029</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0718186688981</v>
+        <v>256.1489472430659</v>
       </c>
       <c r="N14" t="n">
-        <v>335.2837776073475</v>
+        <v>333.3609061815152</v>
       </c>
       <c r="O14" t="n">
-        <v>371.2834822117425</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2495795577946</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q14" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R14" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962263</v>
       </c>
       <c r="S14" t="n">
-        <v>457.448320643178</v>
+        <v>457.4483206431774</v>
       </c>
       <c r="T14" t="n">
-        <v>457.448320643178</v>
+        <v>428.9557724873366</v>
       </c>
       <c r="U14" t="n">
-        <v>457.448320643178</v>
+        <v>372.4526226347331</v>
       </c>
       <c r="V14" t="n">
-        <v>333.4976475380702</v>
+        <v>248.5019495296255</v>
       </c>
       <c r="W14" t="n">
-        <v>209.5469744329624</v>
+        <v>124.5512764245179</v>
       </c>
       <c r="X14" t="n">
-        <v>209.5469744329624</v>
+        <v>124.5512764245179</v>
       </c>
       <c r="Y14" t="n">
-        <v>209.5469744329624</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C15" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D15" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E15" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F15" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G15" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H15" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I15" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J15" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K15" t="n">
-        <v>9.816893309924538</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="L15" t="n">
-        <v>128.3764842781289</v>
+        <v>167.2520893996962</v>
       </c>
       <c r="M15" t="n">
-        <v>249.8605389884451</v>
+        <v>288.7361441100122</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3445936987613</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="O15" t="n">
-        <v>406.140735177981</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="P15" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.6416242957307</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R15" t="n">
-        <v>484.6416242957307</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="S15" t="n">
-        <v>371.0977701762677</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="T15" t="n">
-        <v>350.1519600415968</v>
+        <v>345.9481822564478</v>
       </c>
       <c r="U15" t="n">
-        <v>306.7013295628618</v>
+        <v>277.2339394147444</v>
       </c>
       <c r="V15" t="n">
-        <v>259.7949143830512</v>
+        <v>230.3275242349339</v>
       </c>
       <c r="W15" t="n">
-        <v>186.5696480298978</v>
+        <v>157.1022578817805</v>
       </c>
       <c r="X15" t="n">
-        <v>163.2349565631494</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="Y15" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C16" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D16" t="n">
-        <v>20.87464495852562</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="E16" t="n">
-        <v>20.87464495852562</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="F16" t="n">
-        <v>20.87464495852562</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="G16" t="n">
-        <v>20.87464495852562</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="H16" t="n">
-        <v>20.87464495852562</v>
+        <v>58.3555237502368</v>
       </c>
       <c r="I16" t="n">
-        <v>20.87464495852562</v>
+        <v>87.56297590987215</v>
       </c>
       <c r="J16" t="n">
-        <v>20.87464495852562</v>
+        <v>161.1300818196378</v>
       </c>
       <c r="K16" t="n">
-        <v>142.3586996688418</v>
+        <v>161.1300818196378</v>
       </c>
       <c r="L16" t="n">
-        <v>263.842754379158</v>
+        <v>282.6141365299538</v>
       </c>
       <c r="M16" t="n">
-        <v>263.842754379158</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="N16" t="n">
-        <v>385.3268090894741</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="O16" t="n">
-        <v>385.3268090894741</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="P16" t="n">
-        <v>385.3268090894741</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="Q16" t="n">
-        <v>385.3268090894741</v>
+        <v>385.3268090894736</v>
       </c>
       <c r="R16" t="n">
-        <v>376.2325924295966</v>
+        <v>376.2325924295961</v>
       </c>
       <c r="S16" t="n">
-        <v>334.6739073347152</v>
+        <v>334.6739073347148</v>
       </c>
       <c r="T16" t="n">
-        <v>304.8460822688454</v>
+        <v>304.8460822688451</v>
       </c>
       <c r="U16" t="n">
-        <v>209.4473690135986</v>
+        <v>209.4473690135983</v>
       </c>
       <c r="V16" t="n">
-        <v>158.0358081074772</v>
+        <v>158.035808107477</v>
       </c>
       <c r="W16" t="n">
-        <v>60.96597254995637</v>
+        <v>60.96597254995625</v>
       </c>
       <c r="X16" t="n">
-        <v>32.97820939757979</v>
+        <v>32.97820939757973</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.4102657154749</v>
+        <v>317.4102657154746</v>
       </c>
       <c r="C17" t="n">
-        <v>287.5525337633678</v>
+        <v>287.5525337633676</v>
       </c>
       <c r="D17" t="n">
-        <v>270.2537288203026</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E17" t="n">
-        <v>218.9076992111678</v>
+        <v>218.907699211168</v>
       </c>
       <c r="F17" t="n">
-        <v>135.520924573369</v>
+        <v>135.5209245733693</v>
       </c>
       <c r="G17" t="n">
-        <v>36.34803106400227</v>
+        <v>36.34803106400222</v>
       </c>
       <c r="H17" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I17" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J17" t="n">
-        <v>9.816893309924538</v>
+        <v>51.9489283545869</v>
       </c>
       <c r="K17" t="n">
-        <v>9.816893309924538</v>
+        <v>51.9489283545869</v>
       </c>
       <c r="L17" t="n">
-        <v>58.2040225611361</v>
+        <v>173.4329830649029</v>
       </c>
       <c r="M17" t="n">
-        <v>140.9199867392991</v>
+        <v>256.1489472430659</v>
       </c>
       <c r="N17" t="n">
-        <v>218.1319456777485</v>
+        <v>333.3609061815152</v>
       </c>
       <c r="O17" t="n">
-        <v>254.1316502821435</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="P17" t="n">
-        <v>254.1316502821435</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="Q17" t="n">
-        <v>254.1316502821435</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="R17" t="n">
-        <v>301.1611192690577</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S17" t="n">
-        <v>393.5997868111755</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T17" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="U17" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V17" t="n">
-        <v>490.6088666471771</v>
+        <v>490.6088666471764</v>
       </c>
       <c r="W17" t="n">
-        <v>473.1845019227589</v>
+        <v>473.1845019227582</v>
       </c>
       <c r="X17" t="n">
-        <v>433.6528134923414</v>
+        <v>433.6528134923407</v>
       </c>
       <c r="Y17" t="n">
-        <v>371.3909703914755</v>
+        <v>371.390970391475</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J18" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K18" t="n">
-        <v>9.816893309924538</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3764842781289</v>
+        <v>167.2520893996962</v>
       </c>
       <c r="M18" t="n">
-        <v>163.1726257573486</v>
+        <v>247.8765560755942</v>
       </c>
       <c r="N18" t="n">
-        <v>284.6566804676648</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="O18" t="n">
-        <v>406.140735177981</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="P18" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.6416242957307</v>
+        <v>484.64162429573</v>
       </c>
       <c r="R18" t="n">
-        <v>434.1295387900949</v>
+        <v>360.6909511906223</v>
       </c>
       <c r="S18" t="n">
-        <v>310.1788656849871</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="T18" t="n">
-        <v>186.2281925798793</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="U18" t="n">
-        <v>62.2775194747715</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="V18" t="n">
-        <v>62.2775194747715</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="W18" t="n">
-        <v>62.2775194747715</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="X18" t="n">
-        <v>62.2775194747715</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="Y18" t="n">
-        <v>62.2775194747715</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="M19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="N19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="O19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="P19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="R19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="S19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="T19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="U19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="V19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="W19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="X19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.4102657154752</v>
+        <v>317.4102657154745</v>
       </c>
       <c r="C20" t="n">
-        <v>287.5525337633681</v>
+        <v>287.5525337633674</v>
       </c>
       <c r="D20" t="n">
-        <v>270.2537288203029</v>
+        <v>270.2537288203022</v>
       </c>
       <c r="E20" t="n">
-        <v>218.9076992111682</v>
+        <v>218.9076992111675</v>
       </c>
       <c r="F20" t="n">
-        <v>135.5209245733694</v>
+        <v>135.5209245733689</v>
       </c>
       <c r="G20" t="n">
-        <v>36.34803106400227</v>
+        <v>36.3480310640022</v>
       </c>
       <c r="H20" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I20" t="n">
-        <v>89.06417631464149</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J20" t="n">
-        <v>89.06417631464149</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="K20" t="n">
-        <v>89.06417631464149</v>
+        <v>131.3009480202405</v>
       </c>
       <c r="L20" t="n">
-        <v>137.451305565853</v>
+        <v>179.688077271452</v>
       </c>
       <c r="M20" t="n">
-        <v>220.1672697440161</v>
+        <v>262.404041449615</v>
       </c>
       <c r="N20" t="n">
-        <v>297.3792286824655</v>
+        <v>339.6160003880643</v>
       </c>
       <c r="O20" t="n">
-        <v>333.3789332868605</v>
+        <v>375.6157049924593</v>
       </c>
       <c r="P20" t="n">
-        <v>333.3789332868605</v>
+        <v>375.6157049924593</v>
       </c>
       <c r="Q20" t="n">
-        <v>333.3789332868605</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R20" t="n">
-        <v>333.3789332868605</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="S20" t="n">
-        <v>425.8176008289782</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="T20" t="n">
-        <v>425.8176008289782</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="U20" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V20" t="n">
-        <v>490.6088666471774</v>
+        <v>490.6088666471765</v>
       </c>
       <c r="W20" t="n">
-        <v>473.1845019227592</v>
+        <v>473.1845019227583</v>
       </c>
       <c r="X20" t="n">
-        <v>433.6528134923416</v>
+        <v>433.6528134923408</v>
       </c>
       <c r="Y20" t="n">
-        <v>371.3909703914758</v>
+        <v>371.390970391475</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>490.8446654962269</v>
+        <v>112.7896049804071</v>
       </c>
       <c r="C21" t="n">
-        <v>490.8446654962269</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D21" t="n">
-        <v>490.8446654962269</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E21" t="n">
-        <v>381.668912625248</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F21" t="n">
-        <v>257.7182395201402</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G21" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H21" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I21" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J21" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K21" t="n">
-        <v>48.69249843149183</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="L21" t="n">
-        <v>167.2520893996962</v>
+        <v>48.6924984314918</v>
       </c>
       <c r="M21" t="n">
-        <v>167.2520893996962</v>
+        <v>163.1726257573483</v>
       </c>
       <c r="N21" t="n">
-        <v>284.6566804676648</v>
+        <v>284.6566804676643</v>
       </c>
       <c r="O21" t="n">
-        <v>406.140735177981</v>
+        <v>406.1407351779803</v>
       </c>
       <c r="P21" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q21" t="n">
-        <v>490.8446654962269</v>
+        <v>484.64162429573</v>
       </c>
       <c r="R21" t="n">
-        <v>490.8446654962269</v>
+        <v>484.64162429573</v>
       </c>
       <c r="S21" t="n">
-        <v>490.8446654962269</v>
+        <v>484.64162429573</v>
       </c>
       <c r="T21" t="n">
-        <v>490.8446654962269</v>
+        <v>484.64162429573</v>
       </c>
       <c r="U21" t="n">
-        <v>490.8446654962269</v>
+        <v>484.64162429573</v>
       </c>
       <c r="V21" t="n">
-        <v>490.8446654962269</v>
+        <v>360.6909511906223</v>
       </c>
       <c r="W21" t="n">
-        <v>490.8446654962269</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="X21" t="n">
-        <v>490.8446654962269</v>
+        <v>236.7402780855147</v>
       </c>
       <c r="Y21" t="n">
-        <v>490.8446654962269</v>
+        <v>112.7896049804071</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="M22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="N22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="O22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="P22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="R22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="S22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="T22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="U22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="V22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="W22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="X22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.4102657154743</v>
+        <v>317.4102657154748</v>
       </c>
       <c r="C23" t="n">
-        <v>287.5525337633671</v>
+        <v>287.5525337633678</v>
       </c>
       <c r="D23" t="n">
-        <v>270.253728820302</v>
+        <v>270.2537288203025</v>
       </c>
       <c r="E23" t="n">
-        <v>218.9076992111674</v>
+        <v>218.9076992111672</v>
       </c>
       <c r="F23" t="n">
-        <v>135.5209245733687</v>
+        <v>135.5209245733685</v>
       </c>
       <c r="G23" t="n">
-        <v>36.34803106400227</v>
+        <v>36.3480310640022</v>
       </c>
       <c r="H23" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I23" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J23" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K23" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L23" t="n">
-        <v>58.2040225611361</v>
+        <v>58.20402256113604</v>
       </c>
       <c r="M23" t="n">
-        <v>140.9199867392991</v>
+        <v>140.919986739299</v>
       </c>
       <c r="N23" t="n">
-        <v>218.1319456777485</v>
+        <v>262.404041449615</v>
       </c>
       <c r="O23" t="n">
-        <v>254.1316502821435</v>
+        <v>298.40374605401</v>
       </c>
       <c r="P23" t="n">
-        <v>369.3606107859108</v>
+        <v>298.40374605401</v>
       </c>
       <c r="Q23" t="n">
-        <v>490.8446654962269</v>
+        <v>419.887800764326</v>
       </c>
       <c r="R23" t="n">
-        <v>490.8446654962269</v>
+        <v>419.887800764326</v>
       </c>
       <c r="S23" t="n">
-        <v>490.8446654962269</v>
+        <v>419.887800764326</v>
       </c>
       <c r="T23" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="U23" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="V23" t="n">
         <v>490.6088666471766</v>
       </c>
       <c r="W23" t="n">
-        <v>473.1845019227582</v>
+        <v>473.1845019227587</v>
       </c>
       <c r="X23" t="n">
-        <v>433.6528134923407</v>
+        <v>433.6528134923412</v>
       </c>
       <c r="Y23" t="n">
-        <v>371.3909703914749</v>
+        <v>371.3909703914754</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C24" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D24" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E24" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F24" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G24" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H24" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I24" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J24" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K24" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L24" t="n">
         <v>128.3764842781289</v>
       </c>
       <c r="M24" t="n">
-        <v>249.8605389884451</v>
+        <v>249.8605389884449</v>
       </c>
       <c r="N24" t="n">
-        <v>284.6566804676648</v>
+        <v>369.3606107859102</v>
       </c>
       <c r="O24" t="n">
-        <v>406.140735177981</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="P24" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="Q24" t="n">
-        <v>490.8446654962269</v>
+        <v>490.8446654962262</v>
       </c>
       <c r="R24" t="n">
-        <v>490.8446654962269</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="S24" t="n">
-        <v>490.8446654962269</v>
+        <v>366.8939923911186</v>
       </c>
       <c r="T24" t="n">
-        <v>490.8446654962269</v>
+        <v>257.7182395201398</v>
       </c>
       <c r="U24" t="n">
-        <v>490.8446654962269</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="V24" t="n">
-        <v>381.668912625248</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="W24" t="n">
-        <v>257.7182395201402</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="X24" t="n">
-        <v>133.7675664150323</v>
+        <v>133.7675664150322</v>
       </c>
       <c r="Y24" t="n">
-        <v>133.7675664150323</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="C25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="D25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="E25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="F25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="G25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="H25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="I25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="J25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="K25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="L25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="M25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="N25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="O25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="P25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="R25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="S25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="T25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="U25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="V25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="W25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="X25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.816893309924538</v>
+        <v>9.816893309924525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.508541979649</v>
+        <v>1024.508541979648</v>
       </c>
       <c r="C26" t="n">
-        <v>885.8369123686427</v>
+        <v>885.8369123686418</v>
       </c>
       <c r="D26" t="n">
-        <v>759.7242097666784</v>
+        <v>759.7242097666776</v>
       </c>
       <c r="E26" t="n">
-        <v>599.5642824986446</v>
+        <v>599.5642824986438</v>
       </c>
       <c r="F26" t="n">
-        <v>407.3636102019468</v>
+        <v>407.3636102019461</v>
       </c>
       <c r="G26" t="n">
-        <v>199.3768190336804</v>
+        <v>199.3768190336799</v>
       </c>
       <c r="H26" t="n">
-        <v>64.03178362070366</v>
+        <v>64.0317836207028</v>
       </c>
       <c r="I26" t="n">
         <v>36.07420981112215</v>
       </c>
       <c r="J26" t="n">
-        <v>171.7479657778253</v>
+        <v>171.7479657778252</v>
       </c>
       <c r="K26" t="n">
-        <v>377.2225660613049</v>
+        <v>377.2225660613047</v>
       </c>
       <c r="L26" t="n">
-        <v>636.4010735381363</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M26" t="n">
-        <v>929.908415941919</v>
+        <v>929.9084159419187</v>
       </c>
       <c r="N26" t="n">
         <v>1217.911753105988</v>
@@ -6245,31 +6245,31 @@
         <v>1662.071556543467</v>
       </c>
       <c r="Q26" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R26" t="n">
         <v>1803.710490556108</v>
       </c>
       <c r="S26" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T26" t="n">
         <v>1779.617585787406</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.012430054896</v>
+        <v>1742.012430054895</v>
       </c>
       <c r="V26" t="n">
-        <v>1632.962733546947</v>
+        <v>1632.962733546946</v>
       </c>
       <c r="W26" t="n">
-        <v>1506.72447116363</v>
+        <v>1506.724471163629</v>
       </c>
       <c r="X26" t="n">
-        <v>1358.378885074314</v>
+        <v>1358.378885074312</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.303144314549</v>
+        <v>1187.303144314548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.8543260500904</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C27" t="n">
-        <v>196.8543260500904</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D27" t="n">
         <v>36.07420981112215</v>
@@ -6306,49 +6306,49 @@
         <v>36.07420981112215</v>
       </c>
       <c r="K27" t="n">
-        <v>74.94981493268945</v>
+        <v>74.94981493268943</v>
       </c>
       <c r="L27" t="n">
-        <v>193.5094059008939</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M27" t="n">
-        <v>376.6175206836084</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N27" t="n">
-        <v>582.9918519763007</v>
+        <v>582.9918519763005</v>
       </c>
       <c r="O27" t="n">
-        <v>716.036964250527</v>
+        <v>716.0369642505267</v>
       </c>
       <c r="P27" t="n">
-        <v>800.740894568773</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="Q27" t="n">
-        <v>800.740894568773</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="R27" t="n">
-        <v>750.9391591640607</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="S27" t="n">
-        <v>750.9391591640607</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="T27" t="n">
-        <v>533.8200461128345</v>
+        <v>798.6930785541956</v>
       </c>
       <c r="U27" t="n">
-        <v>294.1961127175443</v>
+        <v>559.0691451589054</v>
       </c>
       <c r="V27" t="n">
-        <v>266.1876916578275</v>
+        <v>320.4788724555084</v>
       </c>
       <c r="W27" t="n">
-        <v>211.860419424768</v>
+        <v>51.08030318579972</v>
       </c>
       <c r="X27" t="n">
-        <v>207.4237220781136</v>
+        <v>46.64360583914529</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.8543260500904</v>
+        <v>36.07420981112215</v>
       </c>
     </row>
     <row r="28">
@@ -6367,64 +6367,64 @@
         <v>36.07420981112215</v>
       </c>
       <c r="E28" t="n">
-        <v>36.07420981112215</v>
+        <v>106.6062082366393</v>
       </c>
       <c r="F28" t="n">
-        <v>36.07420981112215</v>
+        <v>106.6062082366393</v>
       </c>
       <c r="G28" t="n">
-        <v>36.07420981112215</v>
+        <v>130.3855439465276</v>
       </c>
       <c r="H28" t="n">
-        <v>36.07420981112215</v>
+        <v>130.3855439465276</v>
       </c>
       <c r="I28" t="n">
-        <v>36.07420981112215</v>
+        <v>178.1149201432669</v>
       </c>
       <c r="J28" t="n">
-        <v>36.07420981112215</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="K28" t="n">
-        <v>36.07420981112215</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="L28" t="n">
-        <v>95.84719891455333</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="M28" t="n">
-        <v>95.84719891455333</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="N28" t="n">
-        <v>95.84719891455333</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="O28" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="P28" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="R28" t="n">
-        <v>270.2039500901368</v>
+        <v>270.2039500901366</v>
       </c>
       <c r="S28" t="n">
-        <v>247.5432591153494</v>
+        <v>247.5432591153492</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6134281695735</v>
+        <v>236.6134281695733</v>
       </c>
       <c r="U28" t="n">
-        <v>160.1127090344206</v>
+        <v>160.1127090344204</v>
       </c>
       <c r="V28" t="n">
-        <v>127.5991422483931</v>
+        <v>127.599142248393</v>
       </c>
       <c r="W28" t="n">
-        <v>49.42730081096617</v>
+        <v>49.42730081096611</v>
       </c>
       <c r="X28" t="n">
-        <v>40.3375317786835</v>
+        <v>40.33753177868347</v>
       </c>
       <c r="Y28" t="n">
         <v>36.07420981112215</v>
@@ -6440,22 +6440,22 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C29" t="n">
-        <v>885.8369123686418</v>
+        <v>885.8369123686423</v>
       </c>
       <c r="D29" t="n">
-        <v>759.7242097666776</v>
+        <v>759.724209766678</v>
       </c>
       <c r="E29" t="n">
-        <v>599.5642824986438</v>
+        <v>599.5642824986442</v>
       </c>
       <c r="F29" t="n">
-        <v>407.363610201946</v>
+        <v>407.3636102019463</v>
       </c>
       <c r="G29" t="n">
-        <v>199.3768190336798</v>
+        <v>199.3768190336801</v>
       </c>
       <c r="H29" t="n">
-        <v>64.03178362070284</v>
+        <v>64.03178362070321</v>
       </c>
       <c r="I29" t="n">
         <v>36.07420981112215</v>
@@ -6464,13 +6464,13 @@
         <v>171.7479657778251</v>
       </c>
       <c r="K29" t="n">
-        <v>377.2225660613049</v>
+        <v>377.2225660613046</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4010735381364</v>
+        <v>636.401073538136</v>
       </c>
       <c r="M29" t="n">
-        <v>929.908415941919</v>
+        <v>929.9084159419189</v>
       </c>
       <c r="N29" t="n">
         <v>1217.911753105988</v>
@@ -6482,13 +6482,13 @@
         <v>1662.071556543467</v>
       </c>
       <c r="Q29" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R29" t="n">
         <v>1803.710490556108</v>
       </c>
       <c r="S29" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T29" t="n">
         <v>1779.617585787405</v>
@@ -6500,7 +6500,7 @@
         <v>1632.962733546947</v>
       </c>
       <c r="W29" t="n">
-        <v>1506.724471163629</v>
+        <v>1506.72447116363</v>
       </c>
       <c r="X29" t="n">
         <v>1358.378885074313</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="C30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="D30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="E30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="F30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="G30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="H30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="I30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
       <c r="J30" t="n">
         <v>36.07420981112215</v>
       </c>
       <c r="K30" t="n">
-        <v>74.94981493268945</v>
+        <v>74.94981493268943</v>
       </c>
       <c r="L30" t="n">
-        <v>193.5094059008939</v>
+        <v>193.5094059008938</v>
       </c>
       <c r="M30" t="n">
-        <v>376.6175206836084</v>
+        <v>376.6175206836083</v>
       </c>
       <c r="N30" t="n">
-        <v>582.9918519763007</v>
+        <v>582.9918519763005</v>
       </c>
       <c r="O30" t="n">
-        <v>716.036964250527</v>
+        <v>716.0369642505267</v>
       </c>
       <c r="P30" t="n">
-        <v>800.740894568773</v>
+        <v>800.7408945687727</v>
       </c>
       <c r="Q30" t="n">
-        <v>800.740894568773</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="R30" t="n">
-        <v>800.740894568773</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="S30" t="n">
-        <v>800.740894568773</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="T30" t="n">
-        <v>588.1112269105155</v>
+        <v>792.4900373536993</v>
       </c>
       <c r="U30" t="n">
-        <v>563.5585905518744</v>
+        <v>552.8661039584091</v>
       </c>
       <c r="V30" t="n">
-        <v>320.4788724555085</v>
+        <v>524.8576828986924</v>
       </c>
       <c r="W30" t="n">
-        <v>51.08030318579978</v>
+        <v>470.5304106656328</v>
       </c>
       <c r="X30" t="n">
-        <v>46.64360583914532</v>
+        <v>314.1755290406415</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.07420981112215</v>
+        <v>88.53483597596913</v>
       </c>
     </row>
     <row r="31">
@@ -6607,61 +6607,61 @@
         <v>36.07420981112215</v>
       </c>
       <c r="F31" t="n">
-        <v>109.3279746404798</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G31" t="n">
-        <v>109.3279746404798</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="H31" t="n">
-        <v>109.3279746404798</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="I31" t="n">
-        <v>109.3279746404798</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="J31" t="n">
-        <v>109.3279746404798</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="K31" t="n">
-        <v>109.3279746404798</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="L31" t="n">
-        <v>184.9607793539178</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="M31" t="n">
-        <v>184.9607793539178</v>
+        <v>75.04272983029043</v>
       </c>
       <c r="N31" t="n">
-        <v>184.9607793539178</v>
+        <v>270.203950090137</v>
       </c>
       <c r="O31" t="n">
-        <v>184.9607793539178</v>
+        <v>270.203950090137</v>
       </c>
       <c r="P31" t="n">
-        <v>184.9607793539178</v>
+        <v>270.203950090137</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.2039500901368</v>
+        <v>270.203950090137</v>
       </c>
       <c r="R31" t="n">
-        <v>270.2039500901368</v>
+        <v>270.203950090137</v>
       </c>
       <c r="S31" t="n">
-        <v>247.5432591153494</v>
+        <v>247.5432591153495</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6134281695735</v>
+        <v>236.6134281695736</v>
       </c>
       <c r="U31" t="n">
-        <v>160.1127090344206</v>
+        <v>160.1127090344207</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5991422483931</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W31" t="n">
-        <v>49.42730081096617</v>
+        <v>49.42730081096622</v>
       </c>
       <c r="X31" t="n">
-        <v>40.3375317786835</v>
+        <v>40.33753177868353</v>
       </c>
       <c r="Y31" t="n">
         <v>36.07420981112215</v>
@@ -6677,22 +6677,22 @@
         <v>1024.508541979648</v>
       </c>
       <c r="C32" t="n">
-        <v>885.8369123686419</v>
+        <v>885.8369123686423</v>
       </c>
       <c r="D32" t="n">
-        <v>759.7242097666776</v>
+        <v>759.724209766678</v>
       </c>
       <c r="E32" t="n">
-        <v>599.5642824986438</v>
+        <v>599.5642824986442</v>
       </c>
       <c r="F32" t="n">
-        <v>407.3636102019459</v>
+        <v>407.3636102019463</v>
       </c>
       <c r="G32" t="n">
-        <v>199.3768190336799</v>
+        <v>199.3768190336797</v>
       </c>
       <c r="H32" t="n">
-        <v>64.03178362070291</v>
+        <v>64.03178362070285</v>
       </c>
       <c r="I32" t="n">
         <v>36.07420981112215</v>
@@ -6701,13 +6701,13 @@
         <v>171.7479657778251</v>
       </c>
       <c r="K32" t="n">
-        <v>377.2225660613045</v>
+        <v>377.2225660613046</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4010735381358</v>
+        <v>636.4010735381362</v>
       </c>
       <c r="M32" t="n">
-        <v>929.9084159419186</v>
+        <v>929.9084159419191</v>
       </c>
       <c r="N32" t="n">
         <v>1217.911753105988</v>
@@ -6716,16 +6716,16 @@
         <v>1464.702835936003</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.071556543468</v>
+        <v>1662.071556543467</v>
       </c>
       <c r="Q32" t="n">
-        <v>1785.188566519004</v>
+        <v>1785.188566519003</v>
       </c>
       <c r="R32" t="n">
         <v>1803.710490556108</v>
       </c>
       <c r="S32" t="n">
-        <v>1789.212139823153</v>
+        <v>1789.212139823152</v>
       </c>
       <c r="T32" t="n">
         <v>1779.617585787406</v>
@@ -6737,7 +6737,7 @@
         <v>1632.962733546947</v>
       </c>
       <c r="W32" t="n">
-        <v>1506.724471163629</v>
+        <v>1506.72447116363</v>
       </c>
       <c r="X32" t="n">
         <v>1358.378885074313</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>246.6560614548019</v>
+        <v>196.8543260500904</v>
       </c>
       <c r="C33" t="n">
-        <v>246.6560614548019</v>
+        <v>196.8543260500904</v>
       </c>
       <c r="D33" t="n">
-        <v>246.6560614548019</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E33" t="n">
-        <v>196.5019260938781</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F33" t="n">
         <v>36.07420981112215</v>
@@ -6798,31 +6798,31 @@
         <v>800.7408945687727</v>
       </c>
       <c r="Q33" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="R33" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="S33" t="n">
-        <v>800.7408945687727</v>
+        <v>794.5378533682764</v>
       </c>
       <c r="T33" t="n">
-        <v>798.6930785541955</v>
+        <v>577.4187403170502</v>
       </c>
       <c r="U33" t="n">
-        <v>774.1404421955543</v>
+        <v>337.7948069217599</v>
       </c>
       <c r="V33" t="n">
-        <v>746.1320211358375</v>
+        <v>266.1876916578276</v>
       </c>
       <c r="W33" t="n">
-        <v>691.8047489027779</v>
+        <v>211.8604194247681</v>
       </c>
       <c r="X33" t="n">
-        <v>472.2967545194742</v>
+        <v>207.4237220781136</v>
       </c>
       <c r="Y33" t="n">
-        <v>246.6560614548019</v>
+        <v>196.8543260500904</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.02483657842352</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="C34" t="n">
-        <v>117.0236056417907</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0236056417907</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="E34" t="n">
-        <v>117.0236056417907</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0236056417907</v>
+        <v>36.07420981112215</v>
       </c>
       <c r="G34" t="n">
-        <v>117.0236056417907</v>
+        <v>79.85655725530134</v>
       </c>
       <c r="H34" t="n">
-        <v>117.0236056417907</v>
+        <v>79.85655725530134</v>
       </c>
       <c r="I34" t="n">
-        <v>117.0236056417907</v>
+        <v>79.85655725530134</v>
       </c>
       <c r="J34" t="n">
-        <v>117.0236056417907</v>
+        <v>79.85655725530134</v>
       </c>
       <c r="K34" t="n">
-        <v>117.0236056417907</v>
+        <v>79.85655725530134</v>
       </c>
       <c r="L34" t="n">
-        <v>117.0236056417907</v>
+        <v>259.5218103714493</v>
       </c>
       <c r="M34" t="n">
-        <v>117.0236056417907</v>
+        <v>259.5218103714493</v>
       </c>
       <c r="N34" t="n">
-        <v>117.0236056417907</v>
+        <v>259.5218103714493</v>
       </c>
       <c r="O34" t="n">
-        <v>117.0236056417907</v>
+        <v>270.203950090137</v>
       </c>
       <c r="P34" t="n">
-        <v>270.2039500901374</v>
+        <v>270.203950090137</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.2039500901374</v>
+        <v>270.203950090137</v>
       </c>
       <c r="R34" t="n">
-        <v>270.2039500901374</v>
+        <v>270.203950090137</v>
       </c>
       <c r="S34" t="n">
-        <v>247.5432591153499</v>
+        <v>247.5432591153495</v>
       </c>
       <c r="T34" t="n">
-        <v>236.6134281695739</v>
+        <v>236.6134281695736</v>
       </c>
       <c r="U34" t="n">
-        <v>160.1127090344209</v>
+        <v>160.1127090344207</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5991422483933</v>
+        <v>127.5991422483932</v>
       </c>
       <c r="W34" t="n">
-        <v>49.42730081096634</v>
+        <v>49.42730081096622</v>
       </c>
       <c r="X34" t="n">
-        <v>40.33753177868358</v>
+        <v>40.33753177868353</v>
       </c>
       <c r="Y34" t="n">
         <v>36.07420981112215</v>
@@ -6914,52 +6914,52 @@
         <v>772.2454280561335</v>
       </c>
       <c r="C35" t="n">
-        <v>669.3219062457954</v>
+        <v>669.3219062457955</v>
       </c>
       <c r="D35" t="n">
-        <v>578.9573114444994</v>
+        <v>578.9573114444995</v>
       </c>
       <c r="E35" t="n">
-        <v>454.5454919771338</v>
+        <v>454.545491977134</v>
       </c>
       <c r="F35" t="n">
-        <v>298.0929274811042</v>
+        <v>298.0929274811044</v>
       </c>
       <c r="G35" t="n">
         <v>125.8542441135062</v>
       </c>
       <c r="H35" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="I35" t="n">
-        <v>33.8928188658625</v>
+        <v>33.89281886586257</v>
       </c>
       <c r="J35" t="n">
-        <v>204.6032952880004</v>
+        <v>33.89281886586257</v>
       </c>
       <c r="K35" t="n">
-        <v>445.1146160269149</v>
+        <v>274.4041396047771</v>
       </c>
       <c r="L35" t="n">
-        <v>493.5017452781264</v>
+        <v>322.7912688559886</v>
       </c>
       <c r="M35" t="n">
-        <v>576.2177094562893</v>
+        <v>647.7255605583091</v>
       </c>
       <c r="N35" t="n">
-        <v>653.4296683947387</v>
+        <v>724.9375194967585</v>
       </c>
       <c r="O35" t="n">
-        <v>868.7480090734716</v>
+        <v>1006.765322782208</v>
       </c>
       <c r="P35" t="n">
-        <v>1101.153450136371</v>
+        <v>1239.170763845107</v>
       </c>
       <c r="Q35" t="n">
-        <v>1259.307180567342</v>
+        <v>1292.038938157815</v>
       </c>
       <c r="R35" t="n">
-        <v>1312.865825059881</v>
+        <v>1292.038938157815</v>
       </c>
       <c r="S35" t="n">
         <v>1312.865825059881</v>
@@ -6977,10 +6977,10 @@
         <v>1147.21703383811</v>
       </c>
       <c r="X35" t="n">
-        <v>1034.619555549462</v>
+        <v>1034.619555549461</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2919225903651</v>
+        <v>899.2919225903649</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="C36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="D36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="E36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="F36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="G36" t="n">
-        <v>159.1574382155581</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="H36" t="n">
-        <v>159.1574382155581</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="I36" t="n">
-        <v>50.90801154336268</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="J36" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="K36" t="n">
-        <v>65.13292162276488</v>
+        <v>65.1329216227649</v>
       </c>
       <c r="L36" t="n">
         <v>183.6925125909692</v>
@@ -7038,28 +7038,28 @@
         <v>784.7209600583518</v>
       </c>
       <c r="R36" t="n">
-        <v>784.7209600583518</v>
+        <v>744.6592454764713</v>
       </c>
       <c r="S36" t="n">
-        <v>784.7209600583518</v>
+        <v>744.6592454764713</v>
       </c>
       <c r="T36" t="n">
-        <v>567.6018470071256</v>
+        <v>527.540132425245</v>
       </c>
       <c r="U36" t="n">
-        <v>327.9779136118353</v>
+        <v>287.9161990299548</v>
       </c>
       <c r="V36" t="n">
-        <v>327.9779136118353</v>
+        <v>44.83648093358886</v>
       </c>
       <c r="W36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="X36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="Y36" t="n">
-        <v>309.3987491794441</v>
+        <v>26.25731650119762</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="C37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="D37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="E37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="F37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="G37" t="n">
-        <v>105.0763844008117</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="H37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="I37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="J37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="K37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="L37" t="n">
-        <v>109.433661472441</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="M37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139513</v>
       </c>
       <c r="N37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139513</v>
       </c>
       <c r="O37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139513</v>
       </c>
       <c r="P37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139513</v>
       </c>
       <c r="Q37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139513</v>
       </c>
       <c r="R37" t="n">
-        <v>109.433661472441</v>
+        <v>96.60668424139513</v>
       </c>
       <c r="S37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="T37" t="n">
-        <v>109.433661472441</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="U37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795628</v>
       </c>
       <c r="V37" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795628</v>
       </c>
       <c r="W37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="X37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>669.3219062457956</v>
       </c>
       <c r="D38" t="n">
-        <v>578.9573114444994</v>
+        <v>578.9573114444996</v>
       </c>
       <c r="E38" t="n">
-        <v>454.5454919771338</v>
+        <v>454.5454919771341</v>
       </c>
       <c r="F38" t="n">
-        <v>298.0929274811042</v>
+        <v>298.0929274811045</v>
       </c>
       <c r="G38" t="n">
         <v>125.8542441135062</v>
       </c>
       <c r="H38" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="I38" t="n">
-        <v>33.8928188658625</v>
+        <v>33.89281886586257</v>
       </c>
       <c r="J38" t="n">
-        <v>33.8928188658625</v>
+        <v>33.89281886586257</v>
       </c>
       <c r="K38" t="n">
-        <v>274.404139604777</v>
+        <v>274.4041396047771</v>
       </c>
       <c r="L38" t="n">
-        <v>322.7912688559885</v>
+        <v>568.6193675370434</v>
       </c>
       <c r="M38" t="n">
-        <v>405.5072330341515</v>
+        <v>651.3353317152064</v>
       </c>
       <c r="N38" t="n">
-        <v>728.5472906536556</v>
+        <v>970.0751479979821</v>
       </c>
       <c r="O38" t="n">
-        <v>1010.375093939105</v>
+        <v>1006.074852602377</v>
       </c>
       <c r="P38" t="n">
-        <v>1242.780535002004</v>
+        <v>1238.480293665276</v>
       </c>
       <c r="Q38" t="n">
-        <v>1242.780535002004</v>
+        <v>1238.480293665276</v>
       </c>
       <c r="R38" t="n">
         <v>1292.038938157815</v>
@@ -7217,7 +7217,7 @@
         <v>1034.619555549461</v>
       </c>
       <c r="Y38" t="n">
-        <v>899.2919225903647</v>
+        <v>899.2919225903648</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.748054137279</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="C39" t="n">
-        <v>284.748054137279</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="D39" t="n">
-        <v>284.748054137279</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="E39" t="n">
-        <v>284.748054137279</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="F39" t="n">
-        <v>284.748054137279</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="G39" t="n">
-        <v>134.5067431733931</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="H39" t="n">
-        <v>134.5067431733931</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="I39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="J39" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="K39" t="n">
-        <v>65.13292162276488</v>
+        <v>65.1329216227649</v>
       </c>
       <c r="L39" t="n">
         <v>183.6925125909692</v>
@@ -7275,28 +7275,28 @@
         <v>790.9240012588481</v>
       </c>
       <c r="R39" t="n">
-        <v>655.2012843449115</v>
+        <v>790.9240012588481</v>
       </c>
       <c r="S39" t="n">
-        <v>655.2012843449115</v>
+        <v>790.9240012588481</v>
       </c>
       <c r="T39" t="n">
-        <v>546.4069366660362</v>
+        <v>573.8048882076218</v>
       </c>
       <c r="U39" t="n">
-        <v>546.4069366660362</v>
+        <v>334.1809548123316</v>
       </c>
       <c r="V39" t="n">
-        <v>303.3272185696703</v>
+        <v>334.1809548123316</v>
       </c>
       <c r="W39" t="n">
-        <v>284.748054137279</v>
+        <v>315.6017903799404</v>
       </c>
       <c r="X39" t="n">
-        <v>284.748054137279</v>
+        <v>96.09379599663674</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.748054137279</v>
+        <v>96.09379599663674</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.2634878239916</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="C40" t="n">
-        <v>106.2634878239916</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="D40" t="n">
-        <v>106.2634878239916</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="E40" t="n">
-        <v>106.2634878239916</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="F40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="G40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="H40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="I40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="J40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="K40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="L40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="M40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="N40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="O40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="P40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="R40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="S40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="T40" t="n">
-        <v>106.2634878239916</v>
+        <v>109.4336614724409</v>
       </c>
       <c r="U40" t="n">
-        <v>65.51087648950696</v>
+        <v>68.68105013795628</v>
       </c>
       <c r="V40" t="n">
-        <v>68.68105013795632</v>
+        <v>68.68105013795628</v>
       </c>
       <c r="W40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="X40" t="n">
-        <v>26.25731650119761</v>
+        <v>26.25731650119762</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.11555509622565</v>
+        <v>26.25731650119762</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>820.8965178780263</v>
+        <v>820.8965178780265</v>
       </c>
       <c r="C41" t="n">
-        <v>710.1824620766008</v>
+        <v>710.1824620766009</v>
       </c>
       <c r="D41" t="n">
-        <v>612.0273332842172</v>
+        <v>612.0273332842175</v>
       </c>
       <c r="E41" t="n">
-        <v>479.8249798257641</v>
+        <v>479.8249798257643</v>
       </c>
       <c r="F41" t="n">
-        <v>315.581881338647</v>
+        <v>315.5818813386475</v>
       </c>
       <c r="G41" t="n">
         <v>135.5526639799621</v>
@@ -7412,22 +7412,22 @@
         <v>191.240176434039</v>
       </c>
       <c r="K41" t="n">
-        <v>191.240176434039</v>
+        <v>235.159880113151</v>
       </c>
       <c r="L41" t="n">
-        <v>477.8199020016403</v>
+        <v>283.5470093643625</v>
       </c>
       <c r="M41" t="n">
-        <v>798.7284624961933</v>
+        <v>604.4555698589154</v>
       </c>
       <c r="N41" t="n">
-        <v>919.8601251137542</v>
+        <v>681.6675287973648</v>
       </c>
       <c r="O41" t="n">
-        <v>955.8598297181492</v>
+        <v>955.8598297181496</v>
       </c>
       <c r="P41" t="n">
-        <v>1180.629768416383</v>
+        <v>1180.629768416384</v>
       </c>
       <c r="Q41" t="n">
         <v>1331.14799648269</v>
@@ -7439,22 +7439,22 @@
         <v>1390.262523147965</v>
       </c>
       <c r="T41" t="n">
-        <v>1408.260118828299</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="U41" t="n">
-        <v>1398.61253690537</v>
+        <v>1398.612536905371</v>
       </c>
       <c r="V41" t="n">
         <v>1317.520414207002</v>
       </c>
       <c r="W41" t="n">
-        <v>1219.239725633265</v>
+        <v>1219.239725633266</v>
       </c>
       <c r="X41" t="n">
-        <v>1098.851713353529</v>
+        <v>1098.85171335353</v>
       </c>
       <c r="Y41" t="n">
-        <v>955.7335464033453</v>
+        <v>955.7335464033455</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>378.0051929263582</v>
+        <v>303.8744762310681</v>
       </c>
       <c r="C42" t="n">
-        <v>188.5929186593219</v>
+        <v>303.8744762310681</v>
       </c>
       <c r="D42" t="n">
-        <v>188.5929186593219</v>
+        <v>143.0943599920999</v>
       </c>
       <c r="E42" t="n">
-        <v>188.5929186593219</v>
+        <v>143.0943599920999</v>
       </c>
       <c r="F42" t="n">
         <v>28.16520237656599</v>
@@ -7527,13 +7527,13 @@
         <v>792.7810398840804</v>
       </c>
       <c r="W42" t="n">
-        <v>766.4113414606016</v>
+        <v>523.3824706143718</v>
       </c>
       <c r="X42" t="n">
-        <v>603.6458859910306</v>
+        <v>303.8744762310681</v>
       </c>
       <c r="Y42" t="n">
-        <v>378.0051929263582</v>
+        <v>303.8744762310681</v>
       </c>
     </row>
     <row r="43">
@@ -7570,40 +7570,40 @@
         <v>28.16520237656599</v>
       </c>
       <c r="K43" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="L43" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="M43" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="N43" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="O43" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="P43" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="R43" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="S43" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="T43" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="U43" t="n">
-        <v>82.93546298085899</v>
+        <v>82.93546298085906</v>
       </c>
       <c r="V43" t="n">
-        <v>78.3794700044122</v>
+        <v>78.37947000441224</v>
       </c>
       <c r="W43" t="n">
         <v>28.16520237656599</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>820.8965178780268</v>
+        <v>820.8965178780273</v>
       </c>
       <c r="C44" t="n">
-        <v>710.1824620766013</v>
+        <v>710.1824620766017</v>
       </c>
       <c r="D44" t="n">
-        <v>612.0273332842179</v>
+        <v>612.027333284218</v>
       </c>
       <c r="E44" t="n">
-        <v>479.8249798257648</v>
+        <v>479.8249798257646</v>
       </c>
       <c r="F44" t="n">
-        <v>315.5818813386477</v>
+        <v>315.5818813386475</v>
       </c>
       <c r="G44" t="n">
         <v>135.5526639799621</v>
@@ -7649,22 +7649,22 @@
         <v>191.240176434039</v>
       </c>
       <c r="K44" t="n">
-        <v>235.159880113151</v>
+        <v>424.1159948082885</v>
       </c>
       <c r="L44" t="n">
-        <v>283.5470093643625</v>
+        <v>472.5031240595</v>
       </c>
       <c r="M44" t="n">
-        <v>366.2629735425254</v>
+        <v>793.411684554053</v>
       </c>
       <c r="N44" t="n">
-        <v>681.6675287973645</v>
+        <v>1108.816239808892</v>
       </c>
       <c r="O44" t="n">
-        <v>955.8598297181493</v>
+        <v>1144.815944413287</v>
       </c>
       <c r="P44" t="n">
-        <v>1180.629768416383</v>
+        <v>1180.629768416384</v>
       </c>
       <c r="Q44" t="n">
         <v>1331.14799648269</v>
@@ -7676,22 +7676,22 @@
         <v>1390.262523147965</v>
       </c>
       <c r="T44" t="n">
-        <v>1408.260118828299</v>
+        <v>1408.2601188283</v>
       </c>
       <c r="U44" t="n">
-        <v>1398.61253690537</v>
+        <v>1398.612536905371</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.520414207002</v>
+        <v>1317.520414207003</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.239725633266</v>
+        <v>1219.239725633267</v>
       </c>
       <c r="X44" t="n">
-        <v>1098.85171335353</v>
+        <v>1098.851713353531</v>
       </c>
       <c r="Y44" t="n">
-        <v>955.7335464033457</v>
+        <v>955.7335464033463</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>303.8744762310679</v>
+        <v>136.3652508449063</v>
       </c>
       <c r="C45" t="n">
-        <v>303.8744762310679</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="D45" t="n">
-        <v>143.0943599920996</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="E45" t="n">
         <v>28.16520237656599</v>
@@ -7728,49 +7728,49 @@
         <v>28.16520237656599</v>
       </c>
       <c r="K45" t="n">
-        <v>67.04080749813322</v>
+        <v>67.04080749813326</v>
       </c>
       <c r="L45" t="n">
-        <v>185.6003984663375</v>
+        <v>185.6003984663376</v>
       </c>
       <c r="M45" t="n">
-        <v>368.708513249052</v>
+        <v>368.7085132490521</v>
       </c>
       <c r="N45" t="n">
-        <v>575.0828445417442</v>
+        <v>575.0828445417443</v>
       </c>
       <c r="O45" t="n">
-        <v>708.1279568159704</v>
+        <v>708.1279568159705</v>
       </c>
       <c r="P45" t="n">
-        <v>792.8318871342162</v>
+        <v>792.8318871342165</v>
       </c>
       <c r="Q45" t="n">
-        <v>792.8318871342162</v>
+        <v>792.8318871342165</v>
       </c>
       <c r="R45" t="n">
-        <v>792.8318871342162</v>
+        <v>792.8318871342165</v>
       </c>
       <c r="S45" t="n">
-        <v>792.8318871342162</v>
+        <v>599.412903953051</v>
       </c>
       <c r="T45" t="n">
-        <v>792.8318871342162</v>
+        <v>382.2937909018248</v>
       </c>
       <c r="U45" t="n">
-        <v>792.8318871342162</v>
+        <v>382.2937909018248</v>
       </c>
       <c r="V45" t="n">
-        <v>549.7521690378503</v>
+        <v>382.2429436516887</v>
       </c>
       <c r="W45" t="n">
-        <v>523.3824706143715</v>
+        <v>355.8732452282099</v>
       </c>
       <c r="X45" t="n">
-        <v>303.8744762310679</v>
+        <v>136.3652508449063</v>
       </c>
       <c r="Y45" t="n">
-        <v>303.8744762310679</v>
+        <v>136.3652508449063</v>
       </c>
     </row>
     <row r="46">
@@ -7804,43 +7804,43 @@
         <v>28.16520237656599</v>
       </c>
       <c r="J46" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="K46" t="n">
-        <v>131.4786083064312</v>
+        <v>28.16520237656599</v>
       </c>
       <c r="L46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="M46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="N46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="O46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="P46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="R46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="S46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="T46" t="n">
-        <v>131.4786083064312</v>
+        <v>131.4786083064313</v>
       </c>
       <c r="U46" t="n">
-        <v>82.93546298085899</v>
+        <v>82.93546298085906</v>
       </c>
       <c r="V46" t="n">
-        <v>78.3794700044122</v>
+        <v>78.37947000441224</v>
       </c>
       <c r="W46" t="n">
         <v>28.16520237656599</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>239.5303559843451</v>
+        <v>116.8191896102884</v>
       </c>
       <c r="N12" t="n">
-        <v>222.862081306717</v>
+        <v>220.7454341052045</v>
       </c>
       <c r="O12" t="n">
-        <v>243.5449469681793</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P12" t="n">
-        <v>120.8043485046935</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>239.5303559843451</v>
+        <v>239.5303559843449</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8661044510105</v>
+        <v>183.5937933051336</v>
       </c>
       <c r="O15" t="n">
-        <v>155.9813982499</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P15" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046935</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.1051855825678</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>151.9668072660658</v>
+        <v>198.2580448384682</v>
       </c>
       <c r="N18" t="n">
-        <v>224.8661044510104</v>
+        <v>224.8661044510103</v>
       </c>
       <c r="O18" t="n">
-        <v>243.5449469681793</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P18" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046935</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9483,16 +9483,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>120.5473811624957</v>
       </c>
       <c r="M21" t="n">
-        <v>116.8191896102883</v>
+        <v>232.4556818586283</v>
       </c>
       <c r="N21" t="n">
-        <v>220.7454341052048</v>
+        <v>224.8661044510103</v>
       </c>
       <c r="O21" t="n">
-        <v>243.5449469681793</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P21" t="n">
         <v>206.3638740786793</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>132.1051855825678</v>
+        <v>132.1051855825679</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>239.5303559843451</v>
+        <v>239.5303559843449</v>
       </c>
       <c r="N24" t="n">
-        <v>137.3025557327312</v>
+        <v>222.8620813067167</v>
       </c>
       <c r="O24" t="n">
-        <v>243.5449469681793</v>
+        <v>243.5449469681791</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>120.8043485046935</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23258,25 +23258,25 @@
         <v>179.8756704904436</v>
       </c>
       <c r="C11" t="n">
-        <v>33.2827611197324</v>
+        <v>33.28276111973254</v>
       </c>
       <c r="D11" t="n">
-        <v>143.5605897548376</v>
+        <v>124.4770941711646</v>
       </c>
       <c r="E11" t="n">
-        <v>54.55617580018973</v>
+        <v>177.2673421742464</v>
       </c>
       <c r="F11" t="n">
-        <v>208.9876797526238</v>
+        <v>86.2765133785672</v>
       </c>
       <c r="G11" t="n">
-        <v>224.6159374354765</v>
+        <v>101.9047710614199</v>
       </c>
       <c r="H11" t="n">
-        <v>146.9417344999263</v>
+        <v>152.70059923774</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>33.06238140451852</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>28.20762267428239</v>
+        <v>28.20762267428236</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.957047347705583</v>
+        <v>126.6682137217623</v>
       </c>
       <c r="W11" t="n">
         <v>143.6848939383772</v>
@@ -23495,25 +23495,25 @@
         <v>179.8756704904436</v>
       </c>
       <c r="C14" t="n">
-        <v>80.97231355603849</v>
+        <v>155.993927493789</v>
       </c>
       <c r="D14" t="n">
-        <v>20.84942338078083</v>
+        <v>143.5605897548375</v>
       </c>
       <c r="E14" t="n">
         <v>177.2673421742464</v>
       </c>
       <c r="F14" t="n">
-        <v>208.9876797526238</v>
+        <v>208.9876797526237</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6159374354765</v>
+        <v>224.6159374354764</v>
       </c>
       <c r="H14" t="n">
         <v>152.70059923774</v>
       </c>
       <c r="I14" t="n">
-        <v>46.38701225037783</v>
+        <v>46.38701225037778</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>28.20762267428236</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>55.93811835407745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.957047347705569</v>
+        <v>3.957047347705682</v>
       </c>
       <c r="W14" t="n">
-        <v>20.97372756432043</v>
+        <v>20.97372756432054</v>
       </c>
       <c r="X14" t="n">
         <v>165.5711444073164</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.0739975310602</v>
+        <v>74.48695824761271</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>5.866418462119327e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.984279490192421e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>769210.0635331464</v>
+        <v>769210.0635331463</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>769210.0635331465</v>
+        <v>769210.0635331464</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>883658.8888833488</v>
+        <v>883658.8888833489</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>883658.888883349</v>
+        <v>883658.8888833489</v>
       </c>
     </row>
     <row r="10">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>727593.8960205793</v>
+        <v>727593.896020579</v>
       </c>
       <c r="C2" t="n">
-        <v>727593.8960205792</v>
+        <v>727593.8960205794</v>
       </c>
       <c r="D2" t="n">
-        <v>727593.8960205793</v>
+        <v>727593.8960205794</v>
       </c>
       <c r="E2" t="n">
-        <v>626991.8234418959</v>
+        <v>626991.8234418954</v>
       </c>
       <c r="F2" t="n">
-        <v>626991.8234418957</v>
+        <v>626991.8234418955</v>
       </c>
       <c r="G2" t="n">
-        <v>729067.8028082919</v>
+        <v>729067.8028082917</v>
       </c>
       <c r="H2" t="n">
         <v>729067.8028082919</v>
@@ -26335,25 +26335,25 @@
         <v>729067.8028082919</v>
       </c>
       <c r="J2" t="n">
+        <v>729067.8028082919</v>
+      </c>
+      <c r="K2" t="n">
         <v>729067.8028082915</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>729067.802808292</v>
+      </c>
+      <c r="M2" t="n">
         <v>729067.8028082916</v>
       </c>
-      <c r="L2" t="n">
-        <v>729067.8028082921</v>
-      </c>
-      <c r="M2" t="n">
-        <v>729067.8028082919</v>
-      </c>
       <c r="N2" t="n">
-        <v>729067.8028082922</v>
+        <v>729067.802808292</v>
       </c>
       <c r="O2" t="n">
         <v>729067.8028082922</v>
       </c>
       <c r="P2" t="n">
-        <v>729067.8028082923</v>
+        <v>729067.8028082922</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>275420.9947649909</v>
+        <v>275420.9947649908</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
         <v>101147.8182889624</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>155064.5154470555</v>
+        <v>155064.5154470556</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68757.72909053831</v>
+        <v>68757.72909053825</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>338683.1874182847</v>
       </c>
       <c r="F4" t="n">
-        <v>338683.1874182847</v>
+        <v>338683.1874182848</v>
       </c>
       <c r="G4" t="n">
         <v>409186.2663395518</v>
       </c>
       <c r="H4" t="n">
-        <v>409186.2663395518</v>
+        <v>409186.2663395519</v>
       </c>
       <c r="I4" t="n">
         <v>409186.2663395518</v>
@@ -26442,10 +26442,10 @@
         <v>407456.4004199021</v>
       </c>
       <c r="K4" t="n">
+        <v>407456.400419902</v>
+      </c>
+      <c r="L4" t="n">
         <v>407456.4004199021</v>
-      </c>
-      <c r="L4" t="n">
-        <v>407456.4004199019</v>
       </c>
       <c r="M4" t="n">
         <v>406912.0322437919</v>
@@ -26457,7 +26457,7 @@
         <v>407014.9608031419</v>
       </c>
       <c r="P4" t="n">
-        <v>407014.9608031419</v>
+        <v>407014.9608031418</v>
       </c>
     </row>
     <row r="5">
@@ -26476,25 +26476,25 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26051.38465538857</v>
+        <v>26051.38465538856</v>
       </c>
       <c r="F5" t="n">
         <v>26051.38465538857</v>
       </c>
       <c r="G5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505705</v>
       </c>
       <c r="H5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505705</v>
       </c>
       <c r="I5" t="n">
-        <v>36680.62957505706</v>
+        <v>36680.62957505705</v>
       </c>
       <c r="J5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="K5" t="n">
-        <v>47579.79330930412</v>
+        <v>47579.79330930411</v>
       </c>
       <c r="L5" t="n">
         <v>47579.79330930411</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>247866.6511720239</v>
+        <v>247862.1847878185</v>
       </c>
       <c r="C6" t="n">
-        <v>247866.6511720239</v>
+        <v>247862.1847878189</v>
       </c>
       <c r="D6" t="n">
-        <v>247866.6511720239</v>
+        <v>247862.1847878189</v>
       </c>
       <c r="E6" t="n">
-        <v>-13163.74339676832</v>
+        <v>-13473.0645463638</v>
       </c>
       <c r="F6" t="n">
-        <v>262257.2513682224</v>
+        <v>261947.930218627</v>
       </c>
       <c r="G6" t="n">
         <v>182053.0886047205</v>
       </c>
       <c r="H6" t="n">
-        <v>283200.906893683</v>
+        <v>283200.9068936829</v>
       </c>
       <c r="I6" t="n">
         <v>283200.906893683</v>
       </c>
       <c r="J6" t="n">
-        <v>118967.0936320298</v>
+        <v>118967.0936320301</v>
       </c>
       <c r="K6" t="n">
-        <v>274031.6090790855</v>
+        <v>274031.6090790854</v>
       </c>
       <c r="L6" t="n">
-        <v>172883.7907901237</v>
+        <v>172883.7907901233</v>
       </c>
       <c r="M6" t="n">
-        <v>250749.0601946619</v>
+        <v>250749.0601946616</v>
       </c>
       <c r="N6" t="n">
-        <v>279061.5615727914</v>
+        <v>279061.5615727912</v>
       </c>
       <c r="O6" t="n">
-        <v>209399.3036356989</v>
+        <v>209399.303635699</v>
       </c>
       <c r="P6" t="n">
         <v>278157.0327262373</v>
@@ -26695,7 +26695,7 @@
         <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="G2" t="n">
         <v>320.6463427485928</v>
@@ -26713,13 +26713,13 @@
         <v>212.9205840662827</v>
       </c>
       <c r="L2" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="M2" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="N2" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="O2" t="n">
         <v>240.5985821377676</v>
@@ -26744,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="F3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="G3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="H3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="I3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="K3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="L3" t="n">
         <v>103.8244619716954</v>
@@ -26777,7 +26777,7 @@
         <v>103.8244619716954</v>
       </c>
       <c r="P3" t="n">
-        <v>103.8244619716953</v>
+        <v>103.8244619716954</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="F4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="H4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="I4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="J4" t="n">
         <v>450.9276226390269</v>
@@ -26826,10 +26826,10 @@
         <v>328.2164562649702</v>
       </c>
       <c r="O4" t="n">
-        <v>352.0650297070748</v>
+        <v>352.0650297070749</v>
       </c>
       <c r="P4" t="n">
-        <v>352.0650297070748</v>
+        <v>352.0650297070749</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>194.2115698873897</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>126.434772861203</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.77318255390298</v>
+        <v>78.7731825539029</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.8244619716955</v>
+        <v>103.8244619716954</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>328.2164562649702</v>
+        <v>328.2164562649703</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.84857344210462</v>
+        <v>23.84857344210468</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>194.2115698873897</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>126.434772861203</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,13 +28111,13 @@
         <v>194.2115698873897</v>
       </c>
       <c r="J11" t="n">
-        <v>86.61767355985032</v>
+        <v>75.87638612011807</v>
       </c>
       <c r="K11" t="n">
-        <v>128.0816491438954</v>
+        <v>128.0816491438953</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>73.8352782415197</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.55824001833914</v>
+        <v>56.11585117456399</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.2115698873897</v>
+        <v>88.55996792937731</v>
       </c>
       <c r="R11" t="n">
         <v>194.2115698873897</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>65.40309654139371</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28187,10 +28187,10 @@
         <v>125.6804106468432</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J12" t="n">
-        <v>51.93601990319849</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,25 +28211,25 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.141010788491283</v>
+        <v>6.141010788491315</v>
       </c>
       <c r="R12" t="n">
-        <v>11.65432337074036</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S12" t="n">
-        <v>180.1022993880679</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T12" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="U12" t="n">
-        <v>194.2115698873897</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V12" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="W12" t="n">
-        <v>194.2115698873897</v>
+        <v>143.993417202955</v>
       </c>
       <c r="X12" t="n">
         <v>194.2115698873897</v>
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="G13" t="n">
         <v>168.6959906883239</v>
@@ -28269,25 +28269,25 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J13" t="n">
-        <v>119.9013618977274</v>
+        <v>119.9013618977275</v>
       </c>
       <c r="K13" t="n">
-        <v>66.47413857346801</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L13" t="n">
-        <v>31.4405304136079</v>
+        <v>154.1516967876645</v>
       </c>
       <c r="M13" t="n">
-        <v>147.1780805900281</v>
+        <v>147.178080590028</v>
       </c>
       <c r="N13" t="n">
-        <v>26.95748445896415</v>
+        <v>15.78803834926589</v>
       </c>
       <c r="O13" t="n">
-        <v>159.5138199599521</v>
+        <v>115.3985784007075</v>
       </c>
       <c r="P13" t="n">
-        <v>180.6111333345274</v>
+        <v>57.89996696047072</v>
       </c>
       <c r="Q13" t="n">
         <v>126.816371201415</v>
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="D14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="E14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="F14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="G14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="H14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="I14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="J14" t="n">
-        <v>194.2115698873897</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K14" t="n">
-        <v>5.370482769838667</v>
+        <v>121.763372167583</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>28.67551006485647</v>
+        <v>136.2694063923957</v>
       </c>
       <c r="Q14" t="n">
-        <v>194.2115698873897</v>
+        <v>88.55996792937728</v>
       </c>
       <c r="R14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="S14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="T14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y14" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
     </row>
     <row r="15">
@@ -28409,7 +28409,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>36.46114870252181</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28427,7 +28427,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J15" t="n">
-        <v>51.93601990319849</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R15" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074056</v>
       </c>
       <c r="S15" t="n">
-        <v>79.07637777108552</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U15" t="n">
-        <v>194.2115698873897</v>
+        <v>169.200593648051</v>
       </c>
       <c r="V15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X15" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y15" t="n">
-        <v>194.2115698873897</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="16">
@@ -28488,7 +28488,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>156.3520963604088</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
@@ -28503,55 +28503,55 @@
         <v>165.7818614221724</v>
       </c>
       <c r="I16" t="n">
-        <v>164.7090929584652</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="J16" t="n">
-        <v>119.9013618977274</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="K16" t="n">
-        <v>189.1853049475247</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L16" t="n">
-        <v>154.1516967876647</v>
+        <v>154.1516967876645</v>
       </c>
       <c r="M16" t="n">
-        <v>24.46691421597139</v>
+        <v>128.2170885185166</v>
       </c>
       <c r="N16" t="n">
-        <v>138.4992047233226</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O16" t="n">
-        <v>36.80265358589533</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P16" t="n">
-        <v>57.89996696047069</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q16" t="n">
         <v>126.816371201415</v>
       </c>
       <c r="R16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="S16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="T16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="U16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="V16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="W16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="X16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
       <c r="Y16" t="n">
-        <v>194.2115698873897</v>
+        <v>194.2115698873898</v>
       </c>
     </row>
     <row r="17">
@@ -28585,13 +28585,13 @@
         <v>240.5985821377676</v>
       </c>
       <c r="J17" t="n">
-        <v>75.87638612011803</v>
+        <v>118.4339972763427</v>
       </c>
       <c r="K17" t="n">
-        <v>5.370482769838667</v>
+        <v>5.370482769838702</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>73.83527824151969</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.55824001833914</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.55996792937725</v>
+        <v>88.55996792937728</v>
       </c>
       <c r="R17" t="n">
-        <v>241.7160840155858</v>
+        <v>316.9227362614462</v>
       </c>
       <c r="S17" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T17" t="n">
-        <v>320.6463427485928</v>
+        <v>222.4191925616721</v>
       </c>
       <c r="U17" t="n">
         <v>250.1496882414672</v>
@@ -28664,7 +28664,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>84.3585250942177</v>
+        <v>11.65432337074056</v>
       </c>
       <c r="S18" t="n">
-        <v>68.77362697529711</v>
+        <v>68.77362697529729</v>
       </c>
       <c r="T18" t="n">
-        <v>92.23675554665721</v>
+        <v>214.947921920714</v>
       </c>
       <c r="U18" t="n">
-        <v>114.5165276872806</v>
+        <v>237.2276940613373</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28706,10 +28706,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>115.3699298856929</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="19">
@@ -28743,25 +28743,25 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J19" t="n">
-        <v>119.9013618977274</v>
+        <v>119.9013618977275</v>
       </c>
       <c r="K19" t="n">
-        <v>66.47413857346801</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L19" t="n">
-        <v>31.4405304136079</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M19" t="n">
-        <v>24.46691421597139</v>
+        <v>24.46691421597141</v>
       </c>
       <c r="N19" t="n">
-        <v>15.78803834926586</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O19" t="n">
-        <v>36.80265358589533</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P19" t="n">
-        <v>57.89996696047069</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q19" t="n">
         <v>126.816371201415</v>
@@ -28819,13 +28819,13 @@
         <v>320.6463427485928</v>
       </c>
       <c r="I20" t="n">
-        <v>320.6463427485928</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="J20" t="n">
-        <v>75.87638612011803</v>
+        <v>198.5875524941746</v>
       </c>
       <c r="K20" t="n">
-        <v>5.370482769838667</v>
+        <v>5.370482769838702</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.55824001833914</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.55996792937725</v>
+        <v>204.9528573271216</v>
       </c>
       <c r="R20" t="n">
         <v>194.2115698873897</v>
       </c>
       <c r="S20" t="n">
-        <v>320.6463427485928</v>
+        <v>227.2739512919082</v>
       </c>
       <c r="T20" t="n">
         <v>222.4191925616721</v>
       </c>
       <c r="U20" t="n">
-        <v>315.8335919457588</v>
+        <v>250.1496882414672</v>
       </c>
       <c r="V20" t="n">
         <v>320.6463427485928</v>
@@ -28880,28 +28880,28 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>85.5751669705882</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>63.74357649753051</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>36.11227274587161</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>26.02773148019033</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H21" t="n">
-        <v>2.969244272786503</v>
+        <v>125.6804106468432</v>
       </c>
       <c r="I21" t="n">
         <v>107.1669324054735</v>
       </c>
       <c r="J21" t="n">
-        <v>51.93601990319849</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.141010788491283</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S21" t="n">
-        <v>191.4847933493538</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T21" t="n">
         <v>214.947921920714</v>
@@ -28937,16 +28937,16 @@
         <v>237.2276940613373</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>117.9377545413457</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>143.993417202955</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="22">
@@ -28980,25 +28980,25 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J22" t="n">
-        <v>119.9013618977274</v>
+        <v>119.9013618977275</v>
       </c>
       <c r="K22" t="n">
-        <v>66.47413857346801</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L22" t="n">
-        <v>31.4405304136079</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M22" t="n">
-        <v>24.46691421597139</v>
+        <v>24.46691421597141</v>
       </c>
       <c r="N22" t="n">
-        <v>15.78803834926586</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O22" t="n">
-        <v>36.80265358589533</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P22" t="n">
-        <v>57.89996696047069</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q22" t="n">
         <v>126.816371201415</v>
@@ -29059,10 +29059,10 @@
         <v>240.5985821377676</v>
       </c>
       <c r="J23" t="n">
-        <v>75.87638612011803</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K23" t="n">
-        <v>5.370482769838667</v>
+        <v>5.370482769838702</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,16 +29071,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>44.71928865845118</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>129.9511294160838</v>
+        <v>13.55824001833918</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.271134303434</v>
+        <v>211.2711343034338</v>
       </c>
       <c r="R23" t="n">
         <v>194.2115698873897</v>
@@ -29089,7 +29089,7 @@
         <v>227.2739512919082</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4191925616721</v>
+        <v>294.0927933009652</v>
       </c>
       <c r="U23" t="n">
         <v>250.1496882414672</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>36.11227274587161</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7388978542471</v>
@@ -29138,7 +29138,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J24" t="n">
-        <v>51.93601990319849</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.141010788491283</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R24" t="n">
-        <v>134.3654897447971</v>
+        <v>11.65432337074056</v>
       </c>
       <c r="S24" t="n">
-        <v>191.4847933493538</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T24" t="n">
-        <v>214.947921920714</v>
+        <v>106.863926578445</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2276940613373</v>
+        <v>114.5165276872807</v>
       </c>
       <c r="V24" t="n">
-        <v>132.5649255731331</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>143.9934172029548</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>94.60174806541387</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>100.6731197599691</v>
       </c>
     </row>
     <row r="25">
@@ -29217,25 +29217,25 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J25" t="n">
-        <v>119.9013618977274</v>
+        <v>119.9013618977275</v>
       </c>
       <c r="K25" t="n">
-        <v>66.47413857346801</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L25" t="n">
-        <v>31.4405304136079</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M25" t="n">
-        <v>24.46691421597139</v>
+        <v>24.46691421597141</v>
       </c>
       <c r="N25" t="n">
-        <v>15.78803834926586</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O25" t="n">
-        <v>36.80265358589533</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P25" t="n">
-        <v>57.89996696047069</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q25" t="n">
         <v>126.816371201415</v>
@@ -29305,7 +29305,7 @@
         <v>212.9205840662827</v>
       </c>
       <c r="M26" t="n">
-        <v>212.9205840662827</v>
+        <v>212.9205840662824</v>
       </c>
       <c r="N26" t="n">
         <v>212.9205840662827</v>
@@ -29357,7 +29357,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29375,7 +29375,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J27" t="n">
-        <v>51.93601990319849</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,25 +29396,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.141010788491283</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R27" t="n">
-        <v>85.06177169413192</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4847933493538</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>212.9205840662827</v>
+        <v>4.44455093903926</v>
       </c>
       <c r="W27" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.9205840662827</v>
@@ -29439,40 +29439,40 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.6959906883239</v>
+        <v>192.7155217084131</v>
       </c>
       <c r="H28" t="n">
         <v>165.7818614221724</v>
       </c>
       <c r="I28" t="n">
-        <v>164.7090929584652</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="J28" t="n">
-        <v>119.9013618977274</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="K28" t="n">
-        <v>66.47413857346801</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L28" t="n">
-        <v>91.81728708374041</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M28" t="n">
-        <v>24.46691421597139</v>
+        <v>24.46691421597141</v>
       </c>
       <c r="N28" t="n">
-        <v>15.78803834926586</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O28" t="n">
-        <v>212.9205840662827</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P28" t="n">
-        <v>57.89996696047069</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q28" t="n">
         <v>126.816371201415</v>
@@ -29612,7 +29612,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J30" t="n">
-        <v>51.93601990319849</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,31 +29633,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.141010788491283</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4847933493538</v>
+        <v>191.4847933493539</v>
       </c>
       <c r="T30" t="n">
-        <v>4.444550939039033</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>212.9205840662827</v>
       </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X30" t="n">
-        <v>212.9205840662827</v>
+        <v>62.5215816307292</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.9205840662827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>212.9205840662827</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.6959906883239</v>
@@ -29691,28 +29691,28 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J31" t="n">
-        <v>119.9013618977274</v>
+        <v>119.9013618977275</v>
       </c>
       <c r="K31" t="n">
-        <v>66.47413857346801</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L31" t="n">
-        <v>107.837302851424</v>
+        <v>31.44053041360792</v>
       </c>
       <c r="M31" t="n">
-        <v>24.46691421597139</v>
+        <v>63.82905564947472</v>
       </c>
       <c r="N31" t="n">
-        <v>15.78803834926586</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="O31" t="n">
-        <v>36.80265358589533</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P31" t="n">
-        <v>57.89996696047069</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.9205840662827</v>
+        <v>126.816371201415</v>
       </c>
       <c r="R31" t="n">
         <v>203.2148443806685</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="C32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="D32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="E32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="F32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="G32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="H32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="I32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="J32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="K32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="L32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662829</v>
       </c>
       <c r="M32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="N32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="O32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="P32" t="n">
-        <v>212.9205840662835</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="R32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="S32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="T32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="W32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="33">
@@ -29831,13 +29831,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>122.1749778324851</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7388978542471</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.141010788491304</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>134.3654897447971</v>
@@ -29879,22 +29879,22 @@
         <v>191.4847933493539</v>
       </c>
       <c r="T33" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>212.9205840662826</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>212.9205840662826</v>
+        <v>169.7578768041093</v>
       </c>
       <c r="W33" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.9205840662826</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>212.9205840662826</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -29919,7 +29919,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.6959906883239</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="H34" t="n">
         <v>165.7818614221724</v>
@@ -29934,7 +29934,7 @@
         <v>66.47413857346803</v>
       </c>
       <c r="L34" t="n">
-        <v>31.44053041360792</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="M34" t="n">
         <v>24.46691421597141</v>
@@ -29943,10 +29943,10 @@
         <v>15.78803834926588</v>
       </c>
       <c r="O34" t="n">
-        <v>36.80265358589534</v>
+        <v>47.59269370578193</v>
       </c>
       <c r="P34" t="n">
-        <v>212.6275876153665</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q34" t="n">
         <v>126.816371201415</v>
@@ -29955,25 +29955,25 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S34" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="U34" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="X34" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.9205840662826</v>
+        <v>212.9205840662827</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="C35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="D35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="E35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="F35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="G35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="H35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="I35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J35" t="n">
-        <v>248.3112107889442</v>
+        <v>75.87638612011804</v>
       </c>
       <c r="K35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>244.6649772971288</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>181.1299354286242</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="P35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Q35" t="n">
-        <v>248.3112107889442</v>
+        <v>141.9621642048398</v>
       </c>
       <c r="R35" t="n">
-        <v>248.3112107889442</v>
+        <v>194.2115698873897</v>
       </c>
       <c r="S35" t="n">
-        <v>227.2739512919082</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T35" t="n">
         <v>222.4191925616721</v>
       </c>
       <c r="U35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="W35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Y35" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
     </row>
     <row r="36">
@@ -30077,16 +30077,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H36" t="n">
         <v>125.6804106468432</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J36" t="n">
-        <v>27.5318318114551</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>134.3654897447971</v>
+        <v>94.70439230873538</v>
       </c>
       <c r="S36" t="n">
         <v>191.4847933493539</v>
@@ -30122,10 +30122,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30156,10 +30156,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>248.3112107889442</v>
+        <v>168.6959906883239</v>
       </c>
       <c r="H37" t="n">
-        <v>170.1831513935151</v>
+        <v>165.7818614221724</v>
       </c>
       <c r="I37" t="n">
         <v>164.7090929584652</v>
@@ -30174,7 +30174,7 @@
         <v>31.44053041360792</v>
       </c>
       <c r="M37" t="n">
-        <v>24.46691421597141</v>
+        <v>95.52688163031232</v>
       </c>
       <c r="N37" t="n">
         <v>15.78803834926588</v>
@@ -30192,19 +30192,19 @@
         <v>203.2148443806685</v>
       </c>
       <c r="S37" t="n">
-        <v>235.3546681313223</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T37" t="n">
         <v>223.7411167026008</v>
       </c>
       <c r="U37" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="C38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="D38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="E38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="F38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="G38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="H38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="I38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="J38" t="n">
         <v>75.87638612011804</v>
       </c>
       <c r="K38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>248.3112107889442</v>
+        <v>243.9675326710367</v>
       </c>
       <c r="O38" t="n">
-        <v>248.3112107889442</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Q38" t="n">
         <v>88.55996792937728</v>
       </c>
       <c r="R38" t="n">
-        <v>243.967532671037</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="S38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="T38" t="n">
         <v>222.4191925616721</v>
       </c>
       <c r="U38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="W38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
     </row>
     <row r="39">
@@ -30308,19 +30308,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>102.689457139315</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7388978542471</v>
       </c>
       <c r="H39" t="n">
         <v>125.6804106468432</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.1669324054735</v>
       </c>
       <c r="J39" t="n">
         <v>51.93601990319851</v>
@@ -30347,25 +30347,25 @@
         <v>6.141010788491304</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3654897447971</v>
       </c>
       <c r="S39" t="n">
         <v>191.4847933493539</v>
       </c>
       <c r="T39" t="n">
-        <v>107.2415177186274</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276940613373</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>227.261297157661</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>222.9433922904096</v>
       </c>
       <c r="G40" t="n">
         <v>168.6959906883239</v>
@@ -30435,19 +30435,19 @@
         <v>223.7411167026008</v>
       </c>
       <c r="U40" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="V40" t="n">
-        <v>248.3112107889442</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>248.3112107889442</v>
+        <v>248.3112107889443</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.3112107889442</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -30484,19 +30484,19 @@
         <v>240.5985821377676</v>
       </c>
       <c r="K41" t="n">
-        <v>5.370482769838702</v>
+        <v>49.73381981944677</v>
       </c>
       <c r="L41" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="N41" t="n">
-        <v>44.36333704960764</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="P41" t="n">
         <v>240.5985821377676</v>
@@ -30539,16 +30539,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>45.04357308054981</v>
       </c>
       <c r="G42" t="n">
         <v>148.7388978542471</v>
@@ -30599,13 +30599,13 @@
         <v>240.5985821377676</v>
       </c>
       <c r="W42" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>56.17511352459525</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -30642,7 +30642,7 @@
         <v>119.9013618977275</v>
       </c>
       <c r="K43" t="n">
-        <v>170.8311142602005</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L43" t="n">
         <v>31.44053041360792</v>
@@ -30657,7 +30657,7 @@
         <v>36.80265358589534</v>
       </c>
       <c r="P43" t="n">
-        <v>57.89996696047071</v>
+        <v>162.2569426472033</v>
       </c>
       <c r="Q43" t="n">
         <v>126.816371201415</v>
@@ -30721,22 +30721,22 @@
         <v>240.5985821377676</v>
       </c>
       <c r="K44" t="n">
-        <v>49.73381981944689</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="N44" t="n">
         <v>240.5985821377676</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5985821377676</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>240.5985821377676</v>
+        <v>49.73381981944693</v>
       </c>
       <c r="Q44" t="n">
         <v>240.5985821377676</v>
@@ -30776,13 +30776,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>80.40010354070905</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>58.04770580042137</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.1669324054735</v>
       </c>
       <c r="J45" t="n">
-        <v>51.93601990319853</v>
+        <v>51.93601990319851</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,22 +30818,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.141010788491332</v>
+        <v>6.141010788491304</v>
       </c>
       <c r="R45" t="n">
         <v>134.3654897447971</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4847933493539</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.947921920714</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2276940613373</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.5985821377676</v>
       </c>
       <c r="W45" t="n">
         <v>240.5985821377676</v>
@@ -30876,25 +30876,25 @@
         <v>164.7090929584652</v>
       </c>
       <c r="J46" t="n">
-        <v>224.25833758446</v>
+        <v>119.9013618977275</v>
       </c>
       <c r="K46" t="n">
-        <v>66.47413857346805</v>
+        <v>66.47413857346803</v>
       </c>
       <c r="L46" t="n">
-        <v>31.44053041360795</v>
+        <v>135.7975061003405</v>
       </c>
       <c r="M46" t="n">
-        <v>24.46691421597144</v>
+        <v>24.46691421597141</v>
       </c>
       <c r="N46" t="n">
-        <v>15.78803834926591</v>
+        <v>15.78803834926588</v>
       </c>
       <c r="O46" t="n">
-        <v>36.80265358589537</v>
+        <v>36.80265358589534</v>
       </c>
       <c r="P46" t="n">
-        <v>57.89996696047073</v>
+        <v>57.89996696047071</v>
       </c>
       <c r="Q46" t="n">
         <v>126.816371201415</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455088</v>
       </c>
       <c r="H11" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638693</v>
       </c>
       <c r="I11" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271874</v>
       </c>
       <c r="J11" t="n">
-        <v>35.42501077093544</v>
+        <v>35.42501077093541</v>
       </c>
       <c r="K11" t="n">
-        <v>53.09290815892286</v>
+        <v>53.0929081589228</v>
       </c>
       <c r="L11" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722943</v>
       </c>
       <c r="M11" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175862</v>
       </c>
       <c r="N11" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448055</v>
       </c>
       <c r="O11" t="n">
-        <v>70.32463846043622</v>
+        <v>70.32463846043615</v>
       </c>
       <c r="P11" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796889</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983284</v>
       </c>
       <c r="R11" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815884</v>
       </c>
       <c r="S11" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150791</v>
       </c>
       <c r="T11" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.0333907817396407</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.223320540844779</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H12" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053521</v>
       </c>
       <c r="I12" t="n">
-        <v>7.688887042243489</v>
+        <v>7.68888704224348</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954991</v>
       </c>
       <c r="K12" t="n">
-        <v>36.06136996615012</v>
+        <v>36.06136996615009</v>
       </c>
       <c r="L12" t="n">
-        <v>48.48896216895081</v>
+        <v>48.48896216895076</v>
       </c>
       <c r="M12" t="n">
-        <v>56.58433177457404</v>
+        <v>56.58433177457398</v>
       </c>
       <c r="N12" t="n">
-        <v>58.08195066471294</v>
+        <v>58.08195066471288</v>
       </c>
       <c r="O12" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809962</v>
       </c>
       <c r="P12" t="n">
-        <v>42.64442854078943</v>
+        <v>42.64442854078938</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362474</v>
       </c>
       <c r="R12" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350302</v>
       </c>
       <c r="S12" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586129</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505124</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1872244396210902</v>
+        <v>0.18722443962109</v>
       </c>
       <c r="H13" t="n">
-        <v>1.664595472267512</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I13" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514236</v>
       </c>
       <c r="J13" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121106</v>
       </c>
       <c r="K13" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325027</v>
       </c>
       <c r="L13" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057551</v>
       </c>
       <c r="M13" t="n">
-        <v>29.34828193078598</v>
+        <v>29.34828193078595</v>
       </c>
       <c r="N13" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310737</v>
       </c>
       <c r="O13" t="n">
-        <v>26.46332352026102</v>
+        <v>26.46332352026099</v>
       </c>
       <c r="P13" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199073</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.67749375772602</v>
+        <v>15.677493757726</v>
       </c>
       <c r="R13" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508281</v>
       </c>
       <c r="S13" t="n">
-        <v>3.262811370487544</v>
+        <v>3.26281137048754</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.7999589692901117</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H14" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I14" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J14" t="n">
-        <v>35.42501077093544</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K14" t="n">
-        <v>53.09290815892286</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L14" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M14" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N14" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O14" t="n">
-        <v>70.32463846043622</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P14" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R14" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S14" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T14" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.223320540844779</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H15" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I15" t="n">
-        <v>7.688887042243489</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J15" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K15" t="n">
-        <v>36.06136996615012</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L15" t="n">
-        <v>48.48896216895081</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M15" t="n">
-        <v>56.58433177457404</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N15" t="n">
-        <v>58.08195066471294</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O15" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P15" t="n">
-        <v>42.64442854078943</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R15" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S15" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1872244396210902</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H16" t="n">
-        <v>1.664595472267512</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I16" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K16" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L16" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M16" t="n">
-        <v>29.34828193078598</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N16" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O16" t="n">
-        <v>26.46332352026102</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P16" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.67749375772602</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R16" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S16" t="n">
-        <v>3.262811370487544</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H17" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I17" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J17" t="n">
-        <v>35.42501077093544</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K17" t="n">
-        <v>53.09290815892286</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L17" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M17" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N17" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O17" t="n">
-        <v>70.32463846043622</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P17" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R17" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S17" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T17" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.223320540844779</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H18" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I18" t="n">
-        <v>7.688887042243489</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J18" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K18" t="n">
-        <v>36.06136996615012</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L18" t="n">
-        <v>48.48896216895081</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M18" t="n">
-        <v>56.58433177457404</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N18" t="n">
-        <v>58.08195066471294</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O18" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P18" t="n">
-        <v>42.64442854078943</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R18" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S18" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1872244396210902</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H19" t="n">
-        <v>1.664595472267512</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I19" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J19" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K19" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L19" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M19" t="n">
-        <v>29.34828193078598</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N19" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O19" t="n">
-        <v>26.46332352026102</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P19" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.67749375772602</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R19" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S19" t="n">
-        <v>3.262811370487544</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H20" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I20" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J20" t="n">
-        <v>35.42501077093544</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K20" t="n">
-        <v>53.09290815892286</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L20" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M20" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N20" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O20" t="n">
-        <v>70.32463846043622</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P20" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R20" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S20" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T20" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.223320540844779</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H21" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I21" t="n">
-        <v>7.688887042243489</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J21" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K21" t="n">
-        <v>36.06136996615012</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L21" t="n">
-        <v>48.48896216895081</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M21" t="n">
-        <v>56.58433177457404</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N21" t="n">
-        <v>58.08195066471294</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O21" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P21" t="n">
-        <v>42.64442854078943</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R21" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S21" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1872244396210902</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H22" t="n">
-        <v>1.664595472267512</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I22" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J22" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K22" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L22" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M22" t="n">
-        <v>29.34828193078598</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N22" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O22" t="n">
-        <v>26.46332352026102</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P22" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.67749375772602</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R22" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262811370487544</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H23" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I23" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J23" t="n">
-        <v>35.42501077093544</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K23" t="n">
-        <v>53.09290815892286</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L23" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M23" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N23" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O23" t="n">
-        <v>70.32463846043622</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P23" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R23" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S23" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T23" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.223320540844779</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H24" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I24" t="n">
-        <v>7.688887042243489</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J24" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K24" t="n">
-        <v>36.06136996615012</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L24" t="n">
-        <v>48.48896216895081</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M24" t="n">
-        <v>56.58433177457404</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N24" t="n">
-        <v>58.08195066471294</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O24" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P24" t="n">
-        <v>42.64442854078943</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R24" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S24" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1872244396210902</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H25" t="n">
-        <v>1.664595472267512</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I25" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J25" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K25" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L25" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M25" t="n">
-        <v>29.34828193078598</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N25" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O25" t="n">
-        <v>26.46332352026102</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P25" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.67749375772602</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R25" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S25" t="n">
-        <v>3.262811370487544</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H26" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I26" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J26" t="n">
-        <v>35.42501077093544</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K26" t="n">
-        <v>53.09290815892286</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L26" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M26" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N26" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O26" t="n">
-        <v>70.32463846043622</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P26" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R26" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S26" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T26" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.223320540844779</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H27" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I27" t="n">
-        <v>7.688887042243489</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J27" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K27" t="n">
-        <v>36.06136996615012</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L27" t="n">
-        <v>48.48896216895081</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M27" t="n">
-        <v>56.58433177457404</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N27" t="n">
-        <v>58.08195066471294</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O27" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P27" t="n">
-        <v>42.64442854078943</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R27" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S27" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1872244396210902</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H28" t="n">
-        <v>1.664595472267512</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I28" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J28" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K28" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L28" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M28" t="n">
-        <v>29.34828193078598</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N28" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O28" t="n">
-        <v>26.46332352026102</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P28" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67749375772602</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R28" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S28" t="n">
-        <v>3.262811370487544</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4173847717455092</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H29" t="n">
-        <v>4.274541793638697</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I29" t="n">
-        <v>16.09122641271876</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J29" t="n">
-        <v>35.42501077093544</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K29" t="n">
-        <v>53.09290815892286</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L29" t="n">
-        <v>65.8664473672295</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M29" t="n">
-        <v>73.2891138017587</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N29" t="n">
-        <v>74.47500828448064</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O29" t="n">
-        <v>70.32463846043622</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P29" t="n">
-        <v>60.02045190796895</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.07285976983289</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R29" t="n">
-        <v>26.21854616815887</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S29" t="n">
-        <v>9.511155486150802</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T29" t="n">
-        <v>1.827101838315968</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03339078173964073</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.223320540844779</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H30" t="n">
-        <v>2.156806276053524</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I30" t="n">
-        <v>7.688887042243489</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J30" t="n">
-        <v>21.09889372954994</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K30" t="n">
-        <v>36.06136996615012</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L30" t="n">
-        <v>48.48896216895081</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M30" t="n">
-        <v>56.58433177457404</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N30" t="n">
-        <v>58.08195066471294</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O30" t="n">
-        <v>53.13363762809968</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P30" t="n">
-        <v>42.64442854078943</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.50667114362478</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R30" t="n">
-        <v>13.86546305350304</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S30" t="n">
-        <v>4.148081098586133</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9001384957734729</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01469214084505126</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1872244396210902</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H31" t="n">
-        <v>1.664595472267512</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I31" t="n">
-        <v>5.630349511514242</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J31" t="n">
-        <v>13.23676788121108</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K31" t="n">
-        <v>21.7520758032503</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L31" t="n">
-        <v>27.83516805057555</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M31" t="n">
-        <v>29.34828193078598</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N31" t="n">
-        <v>28.6504453831074</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O31" t="n">
-        <v>26.46332352026102</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P31" t="n">
-        <v>22.64394495199076</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67749375772602</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R31" t="n">
-        <v>8.418291621508292</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S31" t="n">
-        <v>3.262811370487544</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7999589692901126</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01021224216115039</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4173847717455085</v>
+        <v>0.4173847717455089</v>
       </c>
       <c r="H44" t="n">
-        <v>4.27454179363869</v>
+        <v>4.274541793638694</v>
       </c>
       <c r="I44" t="n">
-        <v>16.09122641271873</v>
+        <v>16.09122641271875</v>
       </c>
       <c r="J44" t="n">
-        <v>35.42501077093538</v>
+        <v>35.42501077093542</v>
       </c>
       <c r="K44" t="n">
-        <v>53.09290815892277</v>
+        <v>53.09290815892282</v>
       </c>
       <c r="L44" t="n">
-        <v>65.86644736722938</v>
+        <v>65.86644736722945</v>
       </c>
       <c r="M44" t="n">
-        <v>73.28911380175857</v>
+        <v>73.28911380175865</v>
       </c>
       <c r="N44" t="n">
-        <v>74.47500828448051</v>
+        <v>74.47500828448058</v>
       </c>
       <c r="O44" t="n">
-        <v>70.32463846043609</v>
+        <v>70.32463846043618</v>
       </c>
       <c r="P44" t="n">
-        <v>60.02045190796885</v>
+        <v>60.02045190796891</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.07285976983281</v>
+        <v>45.07285976983286</v>
       </c>
       <c r="R44" t="n">
-        <v>26.21854616815882</v>
+        <v>26.21854616815885</v>
       </c>
       <c r="S44" t="n">
-        <v>9.511155486150784</v>
+        <v>9.511155486150795</v>
       </c>
       <c r="T44" t="n">
-        <v>1.827101838315964</v>
+        <v>1.827101838315966</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03339078173964067</v>
+        <v>0.03339078173964071</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2233205408447786</v>
+        <v>0.2233205408447788</v>
       </c>
       <c r="H45" t="n">
-        <v>2.15680627605352</v>
+        <v>2.156806276053522</v>
       </c>
       <c r="I45" t="n">
-        <v>7.688887042243475</v>
+        <v>7.688887042243484</v>
       </c>
       <c r="J45" t="n">
-        <v>21.0988937295499</v>
+        <v>21.09889372954992</v>
       </c>
       <c r="K45" t="n">
-        <v>36.06136996615006</v>
+        <v>36.0613699661501</v>
       </c>
       <c r="L45" t="n">
-        <v>48.48896216895073</v>
+        <v>48.48896216895078</v>
       </c>
       <c r="M45" t="n">
-        <v>56.58433177457394</v>
+        <v>56.584331774574</v>
       </c>
       <c r="N45" t="n">
-        <v>58.08195066471283</v>
+        <v>58.0819506647129</v>
       </c>
       <c r="O45" t="n">
-        <v>53.13363762809959</v>
+        <v>53.13363762809964</v>
       </c>
       <c r="P45" t="n">
-        <v>42.64442854078935</v>
+        <v>42.6444285407894</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.50667114362473</v>
+        <v>28.50667114362475</v>
       </c>
       <c r="R45" t="n">
-        <v>13.86546305350301</v>
+        <v>13.86546305350303</v>
       </c>
       <c r="S45" t="n">
-        <v>4.148081098586126</v>
+        <v>4.148081098586131</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9001384957734713</v>
+        <v>0.9001384957734723</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01469214084505123</v>
+        <v>0.01469214084505125</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872244396210899</v>
+        <v>0.1872244396210901</v>
       </c>
       <c r="H46" t="n">
-        <v>1.66459547226751</v>
+        <v>1.664595472267511</v>
       </c>
       <c r="I46" t="n">
-        <v>5.630349511514233</v>
+        <v>5.630349511514239</v>
       </c>
       <c r="J46" t="n">
-        <v>13.23676788121105</v>
+        <v>13.23676788121107</v>
       </c>
       <c r="K46" t="n">
-        <v>21.75207580325026</v>
+        <v>21.75207580325028</v>
       </c>
       <c r="L46" t="n">
-        <v>27.8351680505755</v>
+        <v>27.83516805057553</v>
       </c>
       <c r="M46" t="n">
-        <v>29.34828193078593</v>
+        <v>29.34828193078597</v>
       </c>
       <c r="N46" t="n">
-        <v>28.65044538310735</v>
+        <v>28.65044538310738</v>
       </c>
       <c r="O46" t="n">
-        <v>26.46332352026097</v>
+        <v>26.463323520261</v>
       </c>
       <c r="P46" t="n">
-        <v>22.64394495199072</v>
+        <v>22.64394495199074</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.67749375772599</v>
+        <v>15.67749375772601</v>
       </c>
       <c r="R46" t="n">
-        <v>8.418291621508276</v>
+        <v>8.418291621508285</v>
       </c>
       <c r="S46" t="n">
-        <v>3.262811370487538</v>
+        <v>3.262811370487542</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7999589692901111</v>
+        <v>0.799958969290112</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01021224216115037</v>
+        <v>0.01021224216115038</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.74128743973229</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="L11" t="n">
-        <v>48.87588813253693</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M11" t="n">
-        <v>83.55147896784146</v>
+        <v>83.55147896784138</v>
       </c>
       <c r="N11" t="n">
-        <v>77.99187771560544</v>
+        <v>77.99187771560536</v>
       </c>
       <c r="O11" t="n">
-        <v>36.36333798423739</v>
+        <v>36.36333798423732</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.55761115622478</v>
       </c>
       <c r="Q11" t="n">
-        <v>105.6516019580124</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.26828800158309</v>
       </c>
       <c r="L12" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M12" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>120.7071432297633</v>
+        <v>118.5904960282507</v>
       </c>
       <c r="O12" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>85.55952557398577</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>55.28468766894306</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M13" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N13" t="n">
-        <v>11.16944610969829</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>122.7111663740567</v>
+        <v>78.59592481481212</v>
       </c>
       <c r="P13" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>118.3351837672717</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>116.3928893977443</v>
       </c>
       <c r="L14" t="n">
-        <v>48.87588813253693</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M14" t="n">
-        <v>83.55147896784146</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N14" t="n">
-        <v>77.99187771560544</v>
+        <v>77.99187771560538</v>
       </c>
       <c r="O14" t="n">
-        <v>36.36333798423739</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P14" t="n">
-        <v>15.11727004651732</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="Q14" t="n">
-        <v>105.6516019580125</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L15" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M15" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N15" t="n">
-        <v>122.7111663740567</v>
+        <v>81.43885522817988</v>
       </c>
       <c r="O15" t="n">
-        <v>35.14761765577745</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P15" t="n">
-        <v>85.55952557398581</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,7 +35784,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.16944610969806</v>
+        <v>49.02891963667906</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -35799,22 +35799,22 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>29.50247692892459</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.31020798966232</v>
       </c>
       <c r="K16" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>103.7501743025452</v>
       </c>
       <c r="N16" t="n">
-        <v>122.7111663740567</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>42.55761115622462</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>48.87588813253693</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="M17" t="n">
-        <v>83.55147896784146</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N17" t="n">
-        <v>77.99187771560544</v>
+        <v>77.99187771560538</v>
       </c>
       <c r="O17" t="n">
-        <v>36.36333798423739</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,13 +35905,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>47.50451412819616</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="S17" t="n">
-        <v>93.37239145668455</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>98.22715018692068</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L18" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M18" t="n">
-        <v>35.14761765577745</v>
+        <v>81.43885522817988</v>
       </c>
       <c r="N18" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O18" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P18" t="n">
-        <v>85.55952557398581</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>80.04776061082521</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>48.87588813253693</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M20" t="n">
-        <v>83.55147896784146</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N20" t="n">
-        <v>77.99187771560544</v>
+        <v>77.99187771560538</v>
       </c>
       <c r="O20" t="n">
-        <v>36.36333798423739</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>116.3928893977444</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.37239145668455</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>65.68390370429159</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.26828800158313</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L21" t="n">
-        <v>119.7571625941459</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>115.6364922483399</v>
       </c>
       <c r="N21" t="n">
-        <v>118.5904960282511</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O21" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P21" t="n">
-        <v>85.55952557398581</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,22 +36361,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>48.87588813253693</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M23" t="n">
-        <v>83.55147896784146</v>
+        <v>83.5514789678414</v>
       </c>
       <c r="N23" t="n">
-        <v>77.99187771560544</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="O23" t="n">
-        <v>36.36333798423739</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P23" t="n">
-        <v>116.3928893977447</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>71.67360073929316</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M24" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="N24" t="n">
-        <v>35.14761765577745</v>
+        <v>120.707143229763</v>
       </c>
       <c r="O24" t="n">
-        <v>122.7111663740567</v>
+        <v>122.7111663740566</v>
       </c>
       <c r="P24" t="n">
-        <v>85.55952557398581</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>261.7964721988196</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4720630341242</v>
+        <v>296.4720630341238</v>
       </c>
       <c r="N26" t="n">
         <v>290.9124617818881</v>
@@ -36616,7 +36616,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R26" t="n">
-        <v>18.709014178893</v>
+        <v>18.70901417889301</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.26828800158313</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L27" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M27" t="n">
         <v>184.9576916997116</v>
@@ -36689,7 +36689,7 @@
         <v>134.3890022971982</v>
       </c>
       <c r="P27" t="n">
-        <v>85.55952557398581</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36735,28 +36735,28 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.24444285405772</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>24.01953102008916</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.21149110781754</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.01922216855526</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>60.37675667013251</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1179304803873</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0441979461647</v>
+        <v>137.0441979461646</v>
       </c>
       <c r="K29" t="n">
         <v>207.550101296444</v>
       </c>
       <c r="L29" t="n">
-        <v>261.7964721988196</v>
+        <v>261.7964721988195</v>
       </c>
       <c r="M29" t="n">
-        <v>296.4720630341242</v>
+        <v>296.4720630341241</v>
       </c>
       <c r="N29" t="n">
         <v>290.9124617818881</v>
       </c>
       <c r="O29" t="n">
-        <v>249.2839220505201</v>
+        <v>249.28392205052</v>
       </c>
       <c r="P29" t="n">
         <v>199.3623440479435</v>
@@ -36853,7 +36853,7 @@
         <v>124.3606161369054</v>
       </c>
       <c r="R29" t="n">
-        <v>18.709014178893</v>
+        <v>18.70901417889295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.26828800158313</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L30" t="n">
-        <v>119.7571625941459</v>
+        <v>119.7571625941458</v>
       </c>
       <c r="M30" t="n">
         <v>184.9576916997116</v>
@@ -36926,7 +36926,7 @@
         <v>134.3890022971982</v>
       </c>
       <c r="P30" t="n">
-        <v>85.55952557398581</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.99370184783604</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36993,13 +36993,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>76.3967724378161</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>39.36214143350331</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>197.1325457170168</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.10421286486772</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>137.0441979461646</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5501012964439</v>
+        <v>207.550101296444</v>
       </c>
       <c r="L32" t="n">
-        <v>261.7964721988195</v>
+        <v>261.7964721988197</v>
       </c>
       <c r="M32" t="n">
-        <v>296.472063034124</v>
+        <v>296.4720630341241</v>
       </c>
       <c r="N32" t="n">
-        <v>290.912461781888</v>
+        <v>290.9124617818881</v>
       </c>
       <c r="O32" t="n">
-        <v>249.2839220505199</v>
+        <v>249.28392205052</v>
       </c>
       <c r="P32" t="n">
-        <v>199.3623440479443</v>
+        <v>199.3623440479435</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.3606161369053</v>
+        <v>124.3606161369054</v>
       </c>
       <c r="R32" t="n">
-        <v>18.7090141788929</v>
+        <v>18.70901417889295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37200,10 +37200,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.30366340131451</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.46340309431025</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -37215,7 +37215,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.22459337795878</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>181.4800536526747</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>10.79004011988659</v>
       </c>
       <c r="P34" t="n">
-        <v>154.7276206548957</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.712628651176654</v>
+        <v>7.712628651176711</v>
       </c>
       <c r="J35" t="n">
-        <v>172.4348246688262</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>242.9407280191055</v>
+        <v>242.9407280191056</v>
       </c>
       <c r="L35" t="n">
         <v>48.87588813253689</v>
       </c>
       <c r="M35" t="n">
-        <v>83.5514789678414</v>
+        <v>328.2164562649702</v>
       </c>
       <c r="N35" t="n">
         <v>77.99187771560538</v>
       </c>
       <c r="O35" t="n">
-        <v>217.4932734128616</v>
+        <v>284.6745487731816</v>
       </c>
       <c r="P35" t="n">
-        <v>234.752970770605</v>
+        <v>234.7529707706051</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.7512428595669</v>
+        <v>53.40219627546251</v>
       </c>
       <c r="R35" t="n">
-        <v>54.09964090155451</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>21.03725949703606</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37452,10 +37452,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>79.61522010062033</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4.401289971342682</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>71.05996741434092</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37488,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>12.956542657622</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.712628651176654</v>
+        <v>7.712628651176711</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>242.9407280191055</v>
+        <v>242.9407280191056</v>
       </c>
       <c r="L38" t="n">
-        <v>48.87588813253689</v>
+        <v>297.1870989214812</v>
       </c>
       <c r="M38" t="n">
         <v>83.5514789678414</v>
       </c>
       <c r="N38" t="n">
-        <v>326.3030885045496</v>
+        <v>321.9594103866421</v>
       </c>
       <c r="O38" t="n">
-        <v>284.6745487731815</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P38" t="n">
-        <v>234.752970770605</v>
+        <v>234.7529707706051</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>49.75596278364728</v>
+        <v>54.09964090155457</v>
       </c>
       <c r="S38" t="n">
-        <v>21.037259497036</v>
+        <v>21.03725949703606</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>49.64437649269292</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>84.01651007196291</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>3.202195604494307</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37743,7 +37743,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.16993797477579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -37780,19 +37780,19 @@
         <v>164.7221960176495</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>44.36333704960807</v>
       </c>
       <c r="L41" t="n">
-        <v>289.4744702703044</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M41" t="n">
         <v>324.150061105609</v>
       </c>
       <c r="N41" t="n">
-        <v>122.355214765213</v>
+        <v>77.99187771560538</v>
       </c>
       <c r="O41" t="n">
-        <v>36.36333798423735</v>
+        <v>276.9619201220049</v>
       </c>
       <c r="P41" t="n">
         <v>227.0403421194284</v>
@@ -37801,13 +37801,13 @@
         <v>152.0386142083903</v>
       </c>
       <c r="R41" t="n">
-        <v>46.38701225037788</v>
+        <v>46.38701225037785</v>
       </c>
       <c r="S41" t="n">
-        <v>13.32463084585937</v>
+        <v>13.32463084585934</v>
       </c>
       <c r="T41" t="n">
-        <v>18.1793895760955</v>
+        <v>18.17938957609547</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>104.3569756867325</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>104.3569756867326</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,34 +38017,34 @@
         <v>164.7221960176495</v>
       </c>
       <c r="K44" t="n">
-        <v>44.36333704960813</v>
+        <v>235.2280993679288</v>
       </c>
       <c r="L44" t="n">
-        <v>48.87588813253682</v>
+        <v>48.87588813253689</v>
       </c>
       <c r="M44" t="n">
-        <v>83.55147896784133</v>
+        <v>324.150061105609</v>
       </c>
       <c r="N44" t="n">
         <v>318.5904598533729</v>
       </c>
       <c r="O44" t="n">
-        <v>276.9619201220048</v>
+        <v>36.36333798423735</v>
       </c>
       <c r="P44" t="n">
-        <v>227.0403421194283</v>
+        <v>36.17557980110774</v>
       </c>
       <c r="Q44" t="n">
-        <v>152.0386142083902</v>
+        <v>152.0386142083903</v>
       </c>
       <c r="R44" t="n">
         <v>46.38701225037785</v>
       </c>
       <c r="S44" t="n">
-        <v>13.32463084585936</v>
+        <v>13.32463084585934</v>
       </c>
       <c r="T44" t="n">
-        <v>18.1793895760955</v>
+        <v>18.17938957609547</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.26828800158307</v>
+        <v>39.26828800158311</v>
       </c>
       <c r="L45" t="n">
         <v>119.7571625941458</v>
       </c>
       <c r="M45" t="n">
-        <v>184.9576916997115</v>
+        <v>184.9576916997116</v>
       </c>
       <c r="N45" t="n">
-        <v>208.4589204976688</v>
+        <v>208.4589204976689</v>
       </c>
       <c r="O45" t="n">
-        <v>134.3890022971981</v>
+        <v>134.3890022971982</v>
       </c>
       <c r="P45" t="n">
-        <v>85.55952557398574</v>
+        <v>85.55952557398578</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3569756867325</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>104.3569756867326</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
